--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -768,7 +768,7 @@
   <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -798,7 +798,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>48908</v>
+        <v>44148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -811,42 +811,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2">
-        <v>11244</v>
+        <v>21532</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
-        <v>22274</v>
+        <v>32638</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
-        <v>34584</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
-        <v>31626</v>
+        <v>12315</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>5596</v>
+        <v>30590</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -854,7 +854,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>26336</v>
+        <v>25398</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -862,39 +862,39 @@
         <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>12360</v>
+        <v>11786</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
-        <v>13463</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
-        <v>3965</v>
+        <v>20523</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2">
-        <v>21685</v>
+        <v>15931</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>30343</v>
+        <v>42084</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -902,47 +902,47 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>19200</v>
+        <v>19144</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="B17" s="2">
-        <v>43708</v>
+        <v>29433</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
-        <v>16799</v>
+        <v>19383</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2">
-        <v>20209</v>
+        <v>71071</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
-        <v>30385</v>
+        <v>28170</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>40974</v>
+        <v>16259</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -950,71 +950,71 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>28195</v>
+        <v>28069</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>30256</v>
+        <v>40218</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2">
-        <v>18841</v>
+        <v>29573</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
-        <v>118307</v>
+        <v>18253</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
-        <v>16987</v>
+        <v>116991</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2">
-        <v>75243</v>
+        <v>27995</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2">
-        <v>29241</v>
+        <v>22213</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2">
-        <v>22773</v>
+        <v>23135</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2">
-        <v>23345</v>
+        <v>11886</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="2">
-        <v>28228</v>
+        <v>27626</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1030,7 +1030,7 @@
         <v>107</v>
       </c>
       <c r="B32" s="2">
-        <v>47328</v>
+        <v>47076</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1038,23 +1038,23 @@
         <v>103</v>
       </c>
       <c r="B33" s="2">
-        <v>27707</v>
+        <v>27245</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2">
-        <v>12488</v>
+        <v>37089</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B35" s="2">
-        <v>37705</v>
+        <v>27004</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="2">
-        <v>15820</v>
+        <v>15358</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1070,71 +1070,71 @@
         <v>110</v>
       </c>
       <c r="B37" s="2">
-        <v>18702</v>
+        <v>18338</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2">
-        <v>27144</v>
+        <v>11539</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B39" s="2">
-        <v>12015</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B40" s="2">
-        <v>2688</v>
+        <v>23348</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B41" s="2">
-        <v>23600</v>
+        <v>11215</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B42" s="2">
-        <v>11355</v>
+        <v>86509</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2">
-        <v>87965</v>
+        <v>16078</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B44" s="2">
-        <v>16400</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2">
-        <v>9519</v>
+        <v>25379</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="2">
-        <v>13411</v>
+        <v>13173</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>13</v>
       </c>
       <c r="B48" s="2">
-        <v>28747</v>
+        <v>28285</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,42 +1171,42 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2">
-        <v>3098</v>
+        <v>14999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>15299</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>2988</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>4701</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>4880</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1214,15 +1214,15 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9760</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2">
-        <v>8360</v>
+        <v>7928</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1276,7 +1276,7 @@
         <v>51</v>
       </c>
       <c r="B63" s="2">
-        <v>2659</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1284,23 +1284,23 @@
         <v>82</v>
       </c>
       <c r="B64" s="2">
-        <v>12989</v>
+        <v>12665</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2">
-        <v>50346</v>
+        <v>138981</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2">
-        <v>141789</v>
+        <v>30801</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1308,7 +1308,7 @@
         <v>101</v>
       </c>
       <c r="B67" s="2">
-        <v>128292</v>
+        <v>127626</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1321,10 +1321,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2">
-        <v>22086</v>
+        <v>594435</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1332,279 +1332,279 @@
         <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>3698</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2">
-        <v>598395</v>
+        <v>21742</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2">
-        <v>32385</v>
+        <v>69989</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2">
-        <v>29881</v>
+        <v>35564</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2">
-        <v>22966</v>
+        <v>46991</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2">
-        <v>71537</v>
+        <v>27366</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B76" s="2">
-        <v>35870</v>
+        <v>49815</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B77" s="2">
-        <v>149935</v>
+        <v>58259</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2">
-        <v>47819</v>
+        <v>28225</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B79" s="2">
-        <v>50445</v>
+        <v>60247</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>28608</v>
+        <v>66670</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2">
-        <v>59915</v>
+        <v>25743</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2">
-        <v>29287</v>
+        <v>35064</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>60427</v>
+        <v>184531</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B84" s="2">
-        <v>67354</v>
+        <v>3910</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B85" s="2">
-        <v>36000</v>
+        <v>78207</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B86" s="2">
-        <v>26139</v>
+        <v>1479935</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B87" s="2">
-        <v>4072</v>
+        <v>19628</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B88" s="2">
-        <v>79269</v>
+        <v>89271</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2">
-        <v>1506161</v>
+        <v>51372</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>19826</v>
+        <v>78378</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B91" s="2">
-        <v>52722</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B92" s="2">
-        <v>80628</v>
+        <v>68767</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B93" s="2">
-        <v>1908</v>
+        <v>7297</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B94" s="2">
-        <v>1872</v>
+        <v>100455</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
-        <v>6865</v>
+        <v>6826</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B96" s="2">
-        <v>101139</v>
+        <v>55365</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>7860</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B98" s="2">
-        <v>7729</v>
+        <v>100583</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B99" s="2">
-        <v>6862</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B100" s="2">
-        <v>5814</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B101" s="2">
-        <v>101591</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B102" s="2">
-        <v>9342</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B103" s="2">
-        <v>69703</v>
+        <v>40716</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2">
-        <v>56373</v>
+        <v>9342</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1612,7 +1612,7 @@
         <v>75</v>
       </c>
       <c r="B105" s="2">
-        <v>42110</v>
+        <v>40310</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1620,7 +1620,7 @@
         <v>70</v>
       </c>
       <c r="B106" s="2">
-        <v>29298</v>
+        <v>27714</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1628,7 +1628,7 @@
         <v>64</v>
       </c>
       <c r="B107" s="2">
-        <v>6064</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1636,23 +1636,23 @@
         <v>54</v>
       </c>
       <c r="B108" s="2">
-        <v>22245</v>
+        <v>21543</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B109" s="2">
-        <v>4654</v>
+        <v>16710</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B110" s="2">
-        <v>17250</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1660,7 +1660,7 @@
         <v>91</v>
       </c>
       <c r="B111" s="2">
-        <v>26242</v>
+        <v>25180</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1668,7 +1668,7 @@
         <v>65</v>
       </c>
       <c r="B112" s="2">
-        <v>14823</v>
+        <v>14643</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>50</v>
       </c>
       <c r="B113" s="2">
-        <v>3067</v>
+        <v>2923</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Количество</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
-  </si>
-  <si>
-    <t>Фп Фитоконтроль Кардио (БАД) 20х1,5г</t>
   </si>
   <si>
     <t>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</t>
@@ -765,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -795,26 +792,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2">
-        <v>44148</v>
+        <v>20076</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2">
-        <v>8700</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>21532</v>
+        <v>24614</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,71 +819,71 @@
         <v>35</v>
       </c>
       <c r="B6" s="2">
-        <v>32638</v>
+        <v>32274</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
-        <v>3405</v>
+        <v>11979</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>12315</v>
+        <v>11660</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>30590</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>25398</v>
+        <v>30226</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2">
-        <v>11786</v>
+        <v>20187</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
-        <v>5484</v>
+        <v>18444</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2">
-        <v>20523</v>
+        <v>15483</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B14" s="2">
-        <v>15931</v>
+        <v>29433</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -894,143 +891,143 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>42084</v>
+        <v>41692</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>19144</v>
+        <v>18963</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>29433</v>
+        <v>28170</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2">
-        <v>19383</v>
+        <v>70399</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>71071</v>
+        <v>15979</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>28170</v>
+        <v>28069</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>16259</v>
+        <v>39994</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2">
-        <v>28069</v>
+        <v>17679</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B23" s="2">
-        <v>40218</v>
+        <v>29559</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
-        <v>29573</v>
+        <v>27351</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>18253</v>
+        <v>115269</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2">
-        <v>116991</v>
+        <v>22143</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>27995</v>
+        <v>11662</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
-        <v>22213</v>
+        <v>22505</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
-        <v>23135</v>
+        <v>25394</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
-        <v>11886</v>
+        <v>27346</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2">
-        <v>27626</v>
+        <v>46348</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
-        <v>47076</v>
+        <v>36585</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1038,47 +1035,47 @@
         <v>103</v>
       </c>
       <c r="B33" s="2">
-        <v>27245</v>
+        <v>27175</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2">
-        <v>37089</v>
+        <v>82474</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2">
-        <v>27004</v>
+        <v>15344</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="B36" s="2">
-        <v>15358</v>
+        <v>18128</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
-        <v>18338</v>
+        <v>11539</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B38" s="2">
-        <v>11539</v>
+        <v>22732</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1086,119 +1083,119 @@
         <v>28</v>
       </c>
       <c r="B39" s="2">
-        <v>2688</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2">
-        <v>23348</v>
+        <v>10949</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B41" s="2">
-        <v>11215</v>
+        <v>84507</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2">
-        <v>86509</v>
+        <v>15924</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2">
-        <v>16078</v>
+        <v>19001</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
-        <v>9393</v>
+        <v>25155</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2">
-        <v>25379</v>
+        <v>13033</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2">
-        <v>13173</v>
+        <v>9379</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B47" s="2">
-        <v>12902</v>
+        <v>28131</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>28285</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="4">
-        <v>690</v>
+        <v>94</v>
+      </c>
+      <c r="B49" s="2">
+        <v>14289</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2">
-        <v>14999</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>2988</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>4701</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>4820</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1206,7 +1203,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>8340</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1218,57 +1215,57 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="2">
-        <v>7928</v>
-      </c>
+      <c r="A56" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="6"/>
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="4">
+        <v>414</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="4">
-        <v>630</v>
+        <v>43</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1188</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B59" s="2">
-        <v>1188</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B60" s="2">
-        <v>1530</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" s="2">
-        <v>1152</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2">
-        <v>3222</v>
+        <v>11261</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1276,367 +1273,367 @@
         <v>51</v>
       </c>
       <c r="B63" s="2">
-        <v>2479</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2">
-        <v>12665</v>
+        <v>29703</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B65" s="2">
-        <v>138981</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2">
-        <v>30801</v>
+        <v>124548</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2">
-        <v>127626</v>
+        <v>594435</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2">
-        <v>1098</v>
+        <v>66785</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B69" s="2">
-        <v>594435</v>
+        <v>48249</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2">
-        <v>3680</v>
+        <v>26610</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>21742</v>
+        <v>57107</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>69989</v>
+        <v>27739</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2">
-        <v>35564</v>
+        <v>189381</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="B74" s="2">
-        <v>46991</v>
+        <v>59995</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B75" s="2">
-        <v>27366</v>
+        <v>66634</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2">
-        <v>49815</v>
+        <v>34560</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>58259</v>
+        <v>24933</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B78" s="2">
-        <v>28225</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2">
-        <v>60247</v>
+        <v>184531</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2">
-        <v>66670</v>
+        <v>77253</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B81" s="2">
-        <v>25743</v>
+        <v>1463303</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B82" s="2">
-        <v>35064</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2">
-        <v>184531</v>
+        <v>51156</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B84" s="2">
-        <v>3910</v>
+        <v>19376</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>78207</v>
+        <v>88983</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B86" s="2">
-        <v>1479935</v>
+        <v>43579</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2">
-        <v>19628</v>
+        <v>77946</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>89271</v>
+        <v>97125</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2">
-        <v>51372</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B90" s="2">
-        <v>78378</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>44137</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B92" s="2">
-        <v>68767</v>
+        <v>62309</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B93" s="2">
-        <v>7297</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B94" s="2">
-        <v>100455</v>
+        <v>54339</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B95" s="2">
-        <v>6826</v>
+        <v>68695</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B96" s="2">
-        <v>55365</v>
+        <v>96857</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B97" s="2">
-        <v>5814</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B98" s="2">
-        <v>100583</v>
+        <v>40518</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B99" s="2">
-        <v>7338</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2">
-        <v>1908</v>
+        <v>42784</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B101" s="2">
-        <v>6577</v>
+        <v>7279</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B102" s="2">
-        <v>1872</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B103" s="2">
-        <v>40716</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B104" s="2">
-        <v>9342</v>
+        <v>25932</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B105" s="2">
-        <v>40310</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B106" s="2">
-        <v>27714</v>
+        <v>59514</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B107" s="2">
-        <v>5920</v>
+        <v>20823</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B108" s="2">
-        <v>21543</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1644,39 +1641,31 @@
         <v>55</v>
       </c>
       <c r="B109" s="2">
-        <v>16710</v>
+        <v>16674</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2">
-        <v>4564</v>
+        <v>24406</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B111" s="2">
-        <v>25180</v>
+        <v>14103</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B112" s="2">
-        <v>14643</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B113" s="2">
-        <v>2923</v>
+        <v>2905</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -795,23 +795,23 @@
         <v>104</v>
       </c>
       <c r="B3" s="2">
-        <v>20076</v>
+        <v>17570</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
-        <v>3307</v>
+        <v>11335</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
-        <v>24614</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -819,263 +819,263 @@
         <v>35</v>
       </c>
       <c r="B6" s="2">
-        <v>32274</v>
+        <v>31238</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B7" s="2">
-        <v>11979</v>
+        <v>13635</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
-        <v>11660</v>
+        <v>17849</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>5204</v>
+        <v>22948</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2">
-        <v>30226</v>
+        <v>25485</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
-        <v>20187</v>
+        <v>16163</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
-        <v>18444</v>
+        <v>36512</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2">
-        <v>15483</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>29433</v>
+        <v>16792</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>41692</v>
+        <v>25370</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>18963</v>
+        <v>64575</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>28170</v>
+        <v>38216</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>70399</v>
+        <v>24537</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>15979</v>
+        <v>16489</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2">
-        <v>28069</v>
+        <v>27907</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>39994</v>
+        <v>15489</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>17679</v>
+        <v>27215</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>29559</v>
+        <v>106743</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>27351</v>
+        <v>21259</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2">
-        <v>115269</v>
+        <v>73724</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2">
-        <v>22143</v>
+        <v>24165</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2">
-        <v>11662</v>
+        <v>21163</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2">
-        <v>22505</v>
+        <v>16336</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
-        <v>25394</v>
+        <v>13916</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2">
-        <v>27346</v>
+        <v>24022</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2">
-        <v>46348</v>
+        <v>26268</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>36585</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2">
-        <v>27175</v>
+        <v>11424</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B34" s="2">
-        <v>82474</v>
+        <v>44640</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>15344</v>
+        <v>34499</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="B36" s="2">
-        <v>18128</v>
+        <v>21094</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B37" s="2">
-        <v>11539</v>
+        <v>10179</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" s="2">
-        <v>22732</v>
+        <v>77829</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1088,50 +1088,50 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B40" s="2">
-        <v>10949</v>
+        <v>15042</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2">
-        <v>84507</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2">
-        <v>15924</v>
+        <v>55109</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2">
-        <v>19001</v>
+        <v>21278</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2">
-        <v>25155</v>
+        <v>12529</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B45" s="2">
-        <v>13033</v>
+        <v>24777</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="2">
-        <v>28131</v>
+        <v>26045</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,7 +1163,7 @@
         <v>94</v>
       </c>
       <c r="B49" s="2">
-        <v>14289</v>
+        <v>13549</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="2">
-        <v>2948</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>4641</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>4790</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>7868</v>
+        <v>7638</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>8280</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1215,25 +1215,25 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="4">
-        <v>414</v>
-      </c>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="2">
-        <v>1188</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="2">
-        <v>1530</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="2">
-        <v>1152</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1257,167 +1257,167 @@
         <v>48</v>
       </c>
       <c r="B61" s="2">
-        <v>3222</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2">
-        <v>11261</v>
+        <v>113244</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2">
-        <v>2461</v>
+        <v>28965</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B64" s="2">
-        <v>29703</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2">
-        <v>1098</v>
+        <v>566985</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2">
-        <v>124548</v>
+        <v>62519</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B67" s="2">
-        <v>594435</v>
+        <v>45657</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
-        <v>66785</v>
+        <v>53453</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2">
-        <v>48249</v>
+        <v>26425</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2">
-        <v>26610</v>
+        <v>177231</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B71" s="2">
-        <v>57107</v>
+        <v>56215</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2">
-        <v>27739</v>
+        <v>21304</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B73" s="2">
-        <v>189381</v>
+        <v>65698</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2">
-        <v>59995</v>
+        <v>23745</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B75" s="2">
-        <v>66634</v>
+        <v>32922</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2">
-        <v>34560</v>
+        <v>173371</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B77" s="2">
-        <v>24933</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2">
-        <v>3838</v>
+        <v>76029</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>184531</v>
+        <v>1427339</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="B80" s="2">
-        <v>77253</v>
+        <v>40843</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>1463303</v>
+        <v>83511</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1425,7 +1425,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="2">
-        <v>45482</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1433,7 +1433,7 @@
         <v>99</v>
       </c>
       <c r="B83" s="2">
-        <v>51156</v>
+        <v>50130</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1441,47 +1441,47 @@
         <v>52</v>
       </c>
       <c r="B84" s="2">
-        <v>19376</v>
+        <v>19196</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>88983</v>
+        <v>75300</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>43579</v>
+        <v>95397</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B87" s="2">
-        <v>77946</v>
+        <v>60887</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2">
-        <v>97125</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2">
-        <v>9270</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1489,31 +1489,31 @@
         <v>73</v>
       </c>
       <c r="B90" s="2">
-        <v>6906</v>
+        <v>6888</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B91" s="2">
-        <v>5814</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="B92" s="2">
-        <v>62309</v>
+        <v>65689</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B93" s="2">
-        <v>1872</v>
+        <v>94139</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1521,55 +1521,55 @@
         <v>76</v>
       </c>
       <c r="B94" s="2">
-        <v>54339</v>
+        <v>53367</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2">
-        <v>68695</v>
+        <v>39516</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B96" s="2">
-        <v>96857</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B97" s="2">
-        <v>1908</v>
+        <v>39222</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B98" s="2">
-        <v>40518</v>
+        <v>7432</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>7432</v>
+        <v>41920</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B100" s="2">
-        <v>42784</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1577,7 +1577,7 @@
         <v>62</v>
       </c>
       <c r="B101" s="2">
-        <v>7279</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1601,7 +1601,7 @@
         <v>70</v>
       </c>
       <c r="B104" s="2">
-        <v>25932</v>
+        <v>21720</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1609,7 +1609,7 @@
         <v>64</v>
       </c>
       <c r="B105" s="2">
-        <v>5416</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1617,7 +1617,7 @@
         <v>75</v>
       </c>
       <c r="B106" s="2">
-        <v>59514</v>
+        <v>54222</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1625,23 +1625,23 @@
         <v>54</v>
       </c>
       <c r="B107" s="2">
-        <v>20823</v>
+        <v>19455</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B108" s="2">
-        <v>4240</v>
+        <v>15882</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B109" s="2">
-        <v>16674</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>91</v>
       </c>
       <c r="B110" s="2">
-        <v>24406</v>
+        <v>23758</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>65</v>
       </c>
       <c r="B111" s="2">
-        <v>14103</v>
+        <v>13635</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -795,7 +795,7 @@
         <v>104</v>
       </c>
       <c r="B3" s="2">
-        <v>17570</v>
+        <v>15792</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -803,87 +803,87 @@
         <v>36</v>
       </c>
       <c r="B4" s="2">
-        <v>11335</v>
+        <v>10789</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
-        <v>3181</v>
+        <v>28830</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>31238</v>
+        <v>14819</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2">
-        <v>13635</v>
+        <v>33866</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>17849</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2">
-        <v>22948</v>
+        <v>13005</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
-        <v>25485</v>
+        <v>16799</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>16163</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2">
-        <v>36512</v>
+        <v>24211</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
-        <v>5204</v>
+        <v>16008</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>16792</v>
+        <v>15033</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>25370</v>
+        <v>23942</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -899,95 +899,95 @@
         <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>64575</v>
+        <v>62559</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>38216</v>
+        <v>23025</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B18" s="2">
-        <v>24537</v>
+        <v>26353</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>16489</v>
+        <v>37026</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>27907</v>
+        <v>25955</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>15489</v>
+        <v>98343</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>27215</v>
+        <v>15083</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
-        <v>106743</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
-        <v>21259</v>
+        <v>69482</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2">
-        <v>73724</v>
+        <v>20211</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2">
-        <v>24165</v>
+        <v>19859</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2">
-        <v>21163</v>
+        <v>23367</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,23 +995,23 @@
         <v>110</v>
       </c>
       <c r="B28" s="2">
-        <v>16336</v>
+        <v>15230</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
-        <v>13916</v>
+        <v>22734</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B30" s="2">
-        <v>24022</v>
+        <v>13384</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1019,15 +1019,15 @@
         <v>7</v>
       </c>
       <c r="B31" s="2">
-        <v>26268</v>
+        <v>25218</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
-        <v>10447</v>
+        <v>32721</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="2">
-        <v>11424</v>
+        <v>11116</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,15 +1043,15 @@
         <v>107</v>
       </c>
       <c r="B34" s="2">
-        <v>44640</v>
+        <v>43534</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" s="2">
-        <v>34499</v>
+        <v>9339</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1059,55 +1059,55 @@
         <v>16</v>
       </c>
       <c r="B36" s="2">
-        <v>21094</v>
+        <v>19918</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B37" s="2">
-        <v>10179</v>
+        <v>75169</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2">
-        <v>77829</v>
+        <v>16019</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B39" s="2">
-        <v>2674</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B40" s="2">
-        <v>15042</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2">
-        <v>17517</v>
+        <v>6511</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2">
-        <v>55109</v>
+        <v>12207</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1115,15 +1115,15 @@
         <v>20</v>
       </c>
       <c r="B43" s="2">
-        <v>21278</v>
+        <v>20382</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B44" s="2">
-        <v>12529</v>
+        <v>53513</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>38</v>
       </c>
       <c r="B45" s="2">
-        <v>24777</v>
+        <v>23783</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="2">
-        <v>9379</v>
+        <v>9281</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="2">
-        <v>26045</v>
+        <v>25093</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1155,7 +1155,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>12902</v>
+        <v>12720</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,7 +1163,7 @@
         <v>94</v>
       </c>
       <c r="B49" s="2">
-        <v>13549</v>
+        <v>13229</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,7 +1171,7 @@
         <v>58</v>
       </c>
       <c r="B50" s="2">
-        <v>2738</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>4481</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>4700</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>7638</v>
+        <v>7408</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>8260</v>
+        <v>8250</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1211,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9750</v>
+        <v>9720</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1233,7 +1233,7 @@
         <v>43</v>
       </c>
       <c r="B58" s="2">
-        <v>1170</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="2">
-        <v>1512</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="2">
-        <v>1134</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="2">
-        <v>2592</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1265,23 +1265,23 @@
         <v>101</v>
       </c>
       <c r="B62" s="2">
-        <v>113244</v>
+        <v>112794</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B63" s="2">
-        <v>28965</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2">
-        <v>1098</v>
+        <v>58559</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1294,274 +1294,274 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" s="2">
-        <v>62519</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2">
-        <v>45657</v>
+        <v>172263</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2">
-        <v>53453</v>
+        <v>20620</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2">
-        <v>26425</v>
+        <v>23043</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2">
-        <v>177231</v>
+        <v>32328</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B71" s="2">
-        <v>56215</v>
+        <v>65032</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B72" s="2">
-        <v>21304</v>
+        <v>171139</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2">
-        <v>65698</v>
+        <v>79425</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B74" s="2">
-        <v>23745</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B75" s="2">
-        <v>32922</v>
+        <v>38989</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>173371</v>
+        <v>1412417</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B77" s="2">
-        <v>3820</v>
+        <v>18260</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2">
-        <v>76029</v>
+        <v>47682</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B79" s="2">
-        <v>1427339</v>
+        <v>43574</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2">
-        <v>40843</v>
+        <v>72654</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B81" s="2">
-        <v>83511</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2">
-        <v>44384</v>
+        <v>92049</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B83" s="2">
-        <v>50130</v>
+        <v>59609</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2">
-        <v>19196</v>
+        <v>9270</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2">
-        <v>75300</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B86" s="2">
-        <v>95397</v>
+        <v>64537</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B87" s="2">
-        <v>60887</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B88" s="2">
-        <v>9270</v>
+        <v>35425</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B89" s="2">
-        <v>5814</v>
+        <v>48311</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B90" s="2">
-        <v>6888</v>
+        <v>91259</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="B91" s="2">
-        <v>1854</v>
+        <v>51837</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B92" s="2">
-        <v>65689</v>
+        <v>81928</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2">
-        <v>94139</v>
+        <v>37878</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B94" s="2">
-        <v>53367</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2">
-        <v>39516</v>
+        <v>94227</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B96" s="2">
-        <v>1890</v>
+        <v>37962</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B97" s="2">
-        <v>39222</v>
+        <v>89152</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>7432</v>
+        <v>40786</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B99" s="2">
-        <v>41920</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1569,7 +1569,7 @@
         <v>51</v>
       </c>
       <c r="B100" s="2">
-        <v>7240</v>
+        <v>7006</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1577,7 +1577,7 @@
         <v>62</v>
       </c>
       <c r="B101" s="2">
-        <v>7099</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1585,7 +1585,7 @@
         <v>92</v>
       </c>
       <c r="B102" s="2">
-        <v>6664</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>71</v>
       </c>
       <c r="B103" s="2">
-        <v>6577</v>
+        <v>6523</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1601,7 +1601,7 @@
         <v>70</v>
       </c>
       <c r="B104" s="2">
-        <v>21720</v>
+        <v>19632</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1609,7 +1609,7 @@
         <v>64</v>
       </c>
       <c r="B105" s="2">
-        <v>4390</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1617,7 +1617,7 @@
         <v>75</v>
       </c>
       <c r="B106" s="2">
-        <v>54222</v>
+        <v>51288</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1625,23 +1625,23 @@
         <v>54</v>
       </c>
       <c r="B107" s="2">
-        <v>19455</v>
+        <v>17979</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B108" s="2">
-        <v>15882</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B109" s="2">
-        <v>4240</v>
+        <v>15090</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>91</v>
       </c>
       <c r="B110" s="2">
-        <v>23758</v>
+        <v>22156</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>65</v>
       </c>
       <c r="B111" s="2">
-        <v>13635</v>
+        <v>12969</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1665,7 +1665,7 @@
         <v>50</v>
       </c>
       <c r="B112" s="2">
-        <v>2905</v>
+        <v>2869</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -795,63 +795,63 @@
         <v>104</v>
       </c>
       <c r="B3" s="2">
-        <v>15792</v>
+        <v>15610</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
-        <v>10789</v>
+        <v>15091</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
-        <v>28830</v>
+        <v>10355</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2">
-        <v>14819</v>
+        <v>11969</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>33866</v>
+        <v>20470</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
-        <v>21800</v>
+        <v>13391</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2">
-        <v>13005</v>
+        <v>23189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>16799</v>
+        <v>31696</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -859,23 +859,23 @@
         <v>3</v>
       </c>
       <c r="B11" s="2">
-        <v>4826</v>
+        <v>4616</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
-        <v>24211</v>
+        <v>14916</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>16008</v>
+        <v>22850</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -883,15 +883,15 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>15033</v>
+        <v>14053</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2">
-        <v>23942</v>
+        <v>24953</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -899,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>62559</v>
+        <v>60767</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -907,111 +907,111 @@
         <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>23025</v>
+        <v>22157</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>26353</v>
+        <v>24975</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>37026</v>
+        <v>96817</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="B20" s="2">
-        <v>25955</v>
+        <v>13886</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>98343</v>
+        <v>36774</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2">
-        <v>15083</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>8991</v>
+        <v>19679</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>69482</v>
+        <v>14705</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2">
-        <v>20211</v>
+        <v>68502</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2">
-        <v>19859</v>
+        <v>21880</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2">
-        <v>23367</v>
+        <v>19593</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>15230</v>
+        <v>12712</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2">
-        <v>22734</v>
+        <v>10458</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B30" s="2">
-        <v>13384</v>
+        <v>41042</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="2">
-        <v>25218</v>
+        <v>24420</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,23 +1027,23 @@
         <v>6</v>
       </c>
       <c r="B32" s="2">
-        <v>32721</v>
+        <v>31867</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B33" s="2">
-        <v>11116</v>
+        <v>23283</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2">
-        <v>43534</v>
+        <v>19470</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,23 +1051,23 @@
         <v>2</v>
       </c>
       <c r="B35" s="2">
-        <v>9339</v>
+        <v>9269</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="2">
-        <v>19918</v>
+        <v>72341</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2">
-        <v>75169</v>
+        <v>13460</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1075,39 +1075,39 @@
         <v>105</v>
       </c>
       <c r="B38" s="2">
-        <v>16019</v>
+        <v>15375</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B39" s="2">
-        <v>14300</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2">
-        <v>2660</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2">
-        <v>6511</v>
+        <v>54334</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2">
-        <v>12207</v>
+        <v>51301</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1115,23 +1115,23 @@
         <v>20</v>
       </c>
       <c r="B43" s="2">
-        <v>20382</v>
+        <v>19962</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
-        <v>53513</v>
+        <v>23153</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2">
-        <v>23783</v>
+        <v>12039</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1139,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="2">
-        <v>9281</v>
+        <v>8931</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,7 +1147,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="2">
-        <v>25093</v>
+        <v>24645</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1155,23 +1155,23 @@
         <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>12720</v>
+        <v>11740</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>13229</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2">
-        <v>2538</v>
+        <v>12729</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1179,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>4331</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1187,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>4610</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>7408</v>
+        <v>6808</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1203,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>8250</v>
+        <v>8220</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1211,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9720</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1233,23 +1233,23 @@
         <v>43</v>
       </c>
       <c r="B58" s="2">
-        <v>1134</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B59" s="2">
-        <v>1476</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60" s="2">
-        <v>1098</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1257,7 +1257,7 @@
         <v>48</v>
       </c>
       <c r="B61" s="2">
-        <v>2502</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1265,7 +1265,7 @@
         <v>101</v>
       </c>
       <c r="B62" s="2">
-        <v>112794</v>
+        <v>106854</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
         <v>84</v>
       </c>
       <c r="B64" s="2">
-        <v>58559</v>
+        <v>55427</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
         <v>80</v>
       </c>
       <c r="B65" s="2">
-        <v>566985</v>
+        <v>562881</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1297,7 +1297,7 @@
         <v>86</v>
       </c>
       <c r="B66" s="2">
-        <v>44649</v>
+        <v>42309</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
         <v>79</v>
       </c>
       <c r="B67" s="2">
-        <v>172263</v>
+        <v>167187</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1313,103 +1313,103 @@
         <v>82</v>
       </c>
       <c r="B68" s="2">
-        <v>20620</v>
+        <v>20062</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B69" s="2">
-        <v>23043</v>
+        <v>31428</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
-        <v>32328</v>
+        <v>64708</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2">
-        <v>65032</v>
+        <v>77085</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B72" s="2">
-        <v>171139</v>
+        <v>17432</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B73" s="2">
-        <v>79425</v>
+        <v>38431</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2">
-        <v>3784</v>
+        <v>1385561</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B75" s="2">
-        <v>38989</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2">
-        <v>1412417</v>
+        <v>70296</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B77" s="2">
-        <v>18260</v>
+        <v>43358</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2">
-        <v>47682</v>
+        <v>90699</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2">
-        <v>43574</v>
+        <v>5274</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2">
-        <v>72654</v>
+        <v>8154</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1417,15 +1417,15 @@
         <v>73</v>
       </c>
       <c r="B81" s="2">
-        <v>6402</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B82" s="2">
-        <v>92049</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1433,95 +1433,95 @@
         <v>102</v>
       </c>
       <c r="B83" s="2">
-        <v>59609</v>
+        <v>59033</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B84" s="2">
-        <v>9270</v>
+        <v>34687</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B85" s="2">
-        <v>5814</v>
+        <v>63799</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B86" s="2">
-        <v>64537</v>
+        <v>48131</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B87" s="2">
-        <v>1818</v>
+        <v>91115</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2">
-        <v>35425</v>
+        <v>37050</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B89" s="2">
-        <v>48311</v>
+        <v>51009</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B90" s="2">
-        <v>91259</v>
+        <v>80488</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B91" s="2">
-        <v>51837</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2">
-        <v>81928</v>
+        <v>61938</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B93" s="2">
-        <v>37878</v>
+        <v>236551</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B94" s="2">
-        <v>1854</v>
+        <v>37404</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1529,15 +1529,15 @@
         <v>98</v>
       </c>
       <c r="B95" s="2">
-        <v>94227</v>
+        <v>92589</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B96" s="2">
-        <v>37962</v>
+        <v>32619</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1545,7 +1545,7 @@
         <v>63</v>
       </c>
       <c r="B97" s="2">
-        <v>89152</v>
+        <v>88774</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1553,7 +1553,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>40786</v>
+        <v>39202</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1561,7 +1561,7 @@
         <v>72</v>
       </c>
       <c r="B99" s="2">
-        <v>7378</v>
+        <v>7234</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1569,7 +1569,7 @@
         <v>51</v>
       </c>
       <c r="B100" s="2">
-        <v>7006</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1577,7 +1577,7 @@
         <v>62</v>
       </c>
       <c r="B101" s="2">
-        <v>6901</v>
+        <v>6847</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1585,7 +1585,7 @@
         <v>92</v>
       </c>
       <c r="B102" s="2">
-        <v>6520</v>
+        <v>6466</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>71</v>
       </c>
       <c r="B103" s="2">
-        <v>6523</v>
+        <v>6451</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1617,7 +1617,7 @@
         <v>75</v>
       </c>
       <c r="B106" s="2">
-        <v>51288</v>
+        <v>49956</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1625,7 +1625,7 @@
         <v>54</v>
       </c>
       <c r="B107" s="2">
-        <v>17979</v>
+        <v>17637</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1641,7 +1641,7 @@
         <v>55</v>
       </c>
       <c r="B109" s="2">
-        <v>15090</v>
+        <v>15072</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>91</v>
       </c>
       <c r="B110" s="2">
-        <v>22156</v>
+        <v>21256</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>65</v>
       </c>
       <c r="B111" s="2">
-        <v>12969</v>
+        <v>11637</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Количество</t>
   </si>
@@ -300,9 +300,6 @@
     <t>Фп Фиалка трехцветная трава 20x1,5г</t>
   </si>
   <si>
-    <t>Фп Фиточай "Баланс" (БАД) 20х2,0 г</t>
-  </si>
-  <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
   </si>
   <si>
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Дивный вечер" (БАД) 20х2,0 г</t>
   </si>
 </sst>
 </file>
@@ -382,7 +376,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,12 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,20 +431,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -762,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -784,154 +765,154 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>81632</v>
+        <v>81536</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
-        <v>15610</v>
+        <v>11501</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
-        <v>15091</v>
+        <v>26124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>10355</v>
+        <v>3888</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2">
-        <v>11969</v>
+        <v>10513</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2">
-        <v>20470</v>
+        <v>14489</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2">
-        <v>13391</v>
+        <v>22321</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
-        <v>23189</v>
+        <v>14594</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>31696</v>
+        <v>20974</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>4616</v>
+        <v>13185</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>14916</v>
+        <v>56245</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2">
-        <v>22850</v>
+        <v>23651</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>14053</v>
+        <v>21023</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
-        <v>24953</v>
+        <v>54488</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2">
-        <v>60767</v>
+        <v>7521</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2">
-        <v>22157</v>
+        <v>23015</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>24975</v>
+        <v>13305</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B19" s="2">
-        <v>96817</v>
+        <v>12668</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
-        <v>13886</v>
+        <v>91497</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -939,63 +920,63 @@
         <v>29</v>
       </c>
       <c r="B21" s="2">
-        <v>36774</v>
+        <v>35220</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>8711</v>
+        <v>18671</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="2">
-        <v>19679</v>
+        <v>21306</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>14705</v>
+        <v>18963</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B25" s="2">
-        <v>68502</v>
+        <v>12278</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2">
-        <v>21880</v>
+        <v>23160</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2">
-        <v>19593</v>
+        <v>30775</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B28" s="2">
-        <v>12712</v>
+        <v>22009</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,55 +984,55 @@
         <v>24</v>
       </c>
       <c r="B29" s="2">
-        <v>10458</v>
+        <v>10178</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2">
-        <v>41042</v>
+        <v>40146</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>24420</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B32" s="2">
-        <v>31867</v>
+        <v>8569</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2">
-        <v>23283</v>
+        <v>32930</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2">
-        <v>19470</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2">
-        <v>9269</v>
+        <v>19008</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1059,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="2">
-        <v>72341</v>
+        <v>68099</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1067,79 +1048,79 @@
         <v>14</v>
       </c>
       <c r="B37" s="2">
-        <v>13460</v>
+        <v>12676</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="2">
-        <v>15375</v>
+        <v>14983</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2">
-        <v>2576</v>
+        <v>47815</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2">
-        <v>6301</v>
+        <v>52318</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2">
-        <v>54334</v>
+        <v>21641</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B42" s="2">
-        <v>51301</v>
+        <v>18772</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
-        <v>19962</v>
+        <v>11409</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B44" s="2">
-        <v>23153</v>
+        <v>8693</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2">
-        <v>12039</v>
+        <v>23725</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2">
-        <v>8931</v>
+        <v>47698</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="2">
-        <v>24645</v>
+        <v>24295</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1155,7 +1136,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>11740</v>
+        <v>11334</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,15 +1144,15 @@
         <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>2078</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>12729</v>
+        <v>11129</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1160,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>4081</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1168,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>4310</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1176,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>6808</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>8220</v>
+        <v>8110</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,149 +1192,151 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9680</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="4">
-        <v>90</v>
+        <v>43</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1008</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="6"/>
+      <c r="A57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1026</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B58" s="2">
-        <v>1044</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" s="2">
-        <v>1026</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2">
-        <v>1476</v>
+        <v>101778</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2">
-        <v>1998</v>
+        <v>49883</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B62" s="2">
-        <v>106854</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B63" s="2">
-        <v>1062</v>
+        <v>40041</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2">
-        <v>55427</v>
+        <v>561621</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2">
-        <v>562881</v>
+        <v>155217</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2">
-        <v>42309</v>
+        <v>18262</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2">
-        <v>167187</v>
+        <v>28674</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2">
-        <v>20062</v>
+        <v>73431</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>31428</v>
+        <v>64024</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B70" s="2">
-        <v>64708</v>
+        <v>16352</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B71" s="2">
-        <v>77085</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B72" s="2">
-        <v>17432</v>
+        <v>36937</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B73" s="2">
-        <v>38431</v>
+        <v>66606</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1361,87 +1344,87 @@
         <v>77</v>
       </c>
       <c r="B74" s="2">
-        <v>1385561</v>
+        <v>1365725</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2">
-        <v>3784</v>
+        <v>42512</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2">
-        <v>70296</v>
+        <v>85659</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B77" s="2">
-        <v>43358</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2">
-        <v>90699</v>
+        <v>7632</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2">
-        <v>5274</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B80" s="2">
-        <v>8154</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2">
-        <v>6348</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B82" s="2">
-        <v>1818</v>
+        <v>33337</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2">
-        <v>59033</v>
+        <v>57809</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2">
-        <v>34687</v>
+        <v>34962</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1449,15 +1432,15 @@
         <v>61</v>
       </c>
       <c r="B85" s="2">
-        <v>63799</v>
+        <v>61909</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B86" s="2">
-        <v>48131</v>
+        <v>77626</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1465,207 +1448,191 @@
         <v>53</v>
       </c>
       <c r="B87" s="2">
-        <v>91115</v>
+        <v>89135</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B88" s="2">
-        <v>37050</v>
+        <v>49389</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="B89" s="2">
-        <v>51009</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2">
-        <v>80488</v>
+        <v>60192</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B91" s="2">
-        <v>1854</v>
+        <v>229603</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B92" s="2">
-        <v>61938</v>
+        <v>36234</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>236551</v>
+        <v>89835</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2">
-        <v>37404</v>
+        <v>31917</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2">
-        <v>92589</v>
+        <v>37186</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B96" s="2">
-        <v>32619</v>
+        <v>88216</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B97" s="2">
-        <v>88774</v>
+        <v>6928</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B98" s="2">
-        <v>39202</v>
+        <v>6664</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B99" s="2">
-        <v>7234</v>
+        <v>6685</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B100" s="2">
-        <v>6880</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B101" s="2">
-        <v>6847</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B102" s="2">
-        <v>6466</v>
+        <v>47022</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B103" s="2">
-        <v>6451</v>
+        <v>16971</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B104" s="2">
-        <v>19632</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>4084</v>
+        <v>18772</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B106" s="2">
-        <v>49956</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B107" s="2">
-        <v>17637</v>
+        <v>14154</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B108" s="2">
-        <v>3718</v>
+        <v>46164</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B109" s="2">
-        <v>15072</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B110" s="2">
-        <v>21256</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B111" s="2">
-        <v>11637</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" s="2">
-        <v>2869</v>
+        <v>12454</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -746,7 +746,7 @@
   <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -768,71 +768,71 @@
         <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>81536</v>
+        <v>81568</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>11501</v>
+        <v>25018</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>26124</v>
+        <v>11207</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="B5" s="2">
-        <v>3888</v>
+        <v>10177</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2">
-        <v>10513</v>
+        <v>21817</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>14489</v>
+        <v>20120</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>22321</v>
+        <v>14370</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>14594</v>
+        <v>54061</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
-        <v>20974</v>
+        <v>50344</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -840,15 +840,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>13185</v>
+        <v>12751</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
-        <v>56245</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -856,7 +856,7 @@
         <v>108</v>
       </c>
       <c r="B13" s="2">
-        <v>23651</v>
+        <v>22769</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -864,63 +864,63 @@
         <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>21023</v>
+        <v>20799</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>54488</v>
+        <v>22091</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>7521</v>
+        <v>86695</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>23015</v>
+        <v>13277</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B18" s="2">
-        <v>13305</v>
+        <v>12528</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>12668</v>
+        <v>34016</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>91497</v>
+        <v>17619</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B21" s="2">
-        <v>35220</v>
+        <v>21679</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -928,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>18671</v>
+        <v>18629</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -936,199 +936,199 @@
         <v>9</v>
       </c>
       <c r="B23" s="2">
-        <v>21306</v>
+        <v>20536</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="B24" s="2">
-        <v>18963</v>
+        <v>38578</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2">
-        <v>12278</v>
+        <v>21337</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>23160</v>
+        <v>12236</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
-        <v>30775</v>
+        <v>10122</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="B28" s="2">
-        <v>22009</v>
+        <v>29977</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2">
-        <v>10178</v>
+        <v>8513</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2">
-        <v>40146</v>
+        <v>18364</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2">
-        <v>5027</v>
+        <v>32146</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B32" s="2">
-        <v>8569</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
-        <v>32930</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2">
-        <v>2156</v>
+        <v>66907</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="2">
-        <v>19008</v>
+        <v>12606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="B36" s="2">
-        <v>68099</v>
+        <v>14703</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2">
-        <v>12676</v>
+        <v>47213</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2">
-        <v>14983</v>
+        <v>18716</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2">
-        <v>47815</v>
+        <v>52008</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>52318</v>
+        <v>21123</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2">
-        <v>21641</v>
+        <v>11297</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2">
-        <v>18772</v>
+        <v>8581</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2">
-        <v>11409</v>
+        <v>35615</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2">
-        <v>8693</v>
+        <v>22717</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B45" s="2">
-        <v>23725</v>
+        <v>9737</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2">
-        <v>47698</v>
+        <v>23399</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2">
-        <v>24295</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>1598</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>11129</v>
+        <v>10929</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>3741</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1168,7 +1168,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>4070</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>6398</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>8110</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9670</v>
+        <v>9490</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1232,71 +1232,71 @@
         <v>100</v>
       </c>
       <c r="B60" s="2">
-        <v>101778</v>
+        <v>99780</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B61" s="2">
-        <v>49883</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B62" s="2">
-        <v>1062</v>
+        <v>38241</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2">
-        <v>40041</v>
+        <v>555771</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2">
-        <v>561621</v>
+        <v>151041</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2">
-        <v>155217</v>
+        <v>17506</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2">
-        <v>18262</v>
+        <v>27468</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2">
-        <v>28674</v>
+        <v>69849</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B68" s="2">
-        <v>73431</v>
+        <v>15956</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1304,23 +1304,23 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>64024</v>
+        <v>63800</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B70" s="2">
-        <v>16352</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B71" s="2">
-        <v>3460</v>
+        <v>62616</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1328,23 +1328,23 @@
         <v>68</v>
       </c>
       <c r="B72" s="2">
-        <v>36937</v>
+        <v>35605</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2">
-        <v>66606</v>
+        <v>82149</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>1365725</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1357,18 +1357,18 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2">
-        <v>85659</v>
+        <v>86866</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>6006</v>
+        <v>1346159</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1376,7 +1376,7 @@
         <v>95</v>
       </c>
       <c r="B78" s="2">
-        <v>7632</v>
+        <v>7416</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1384,7 +1384,7 @@
         <v>94</v>
       </c>
       <c r="B79" s="2">
-        <v>5130</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1392,7 +1392,7 @@
         <v>46</v>
       </c>
       <c r="B80" s="2">
-        <v>1818</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1400,39 +1400,39 @@
         <v>78</v>
       </c>
       <c r="B81" s="2">
-        <v>45377</v>
+        <v>43127</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2">
-        <v>33337</v>
+        <v>34008</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B83" s="2">
-        <v>57809</v>
+        <v>46797</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B84" s="2">
-        <v>34962</v>
+        <v>32959</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B85" s="2">
-        <v>61909</v>
+        <v>56999</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>69</v>
       </c>
       <c r="B86" s="2">
-        <v>77626</v>
+        <v>74674</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1448,15 +1448,15 @@
         <v>53</v>
       </c>
       <c r="B87" s="2">
-        <v>89135</v>
+        <v>87587</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B88" s="2">
-        <v>49389</v>
+        <v>61909</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
         <v>98</v>
       </c>
       <c r="B90" s="2">
-        <v>60192</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1480,23 +1480,23 @@
         <v>85</v>
       </c>
       <c r="B91" s="2">
-        <v>229603</v>
+        <v>226543</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B92" s="2">
-        <v>36234</v>
+        <v>88737</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B93" s="2">
-        <v>89835</v>
+        <v>36126</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1504,23 +1504,23 @@
         <v>81</v>
       </c>
       <c r="B94" s="2">
-        <v>31917</v>
+        <v>31773</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B95" s="2">
-        <v>37186</v>
+        <v>86722</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>88216</v>
+        <v>36952</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1528,7 +1528,7 @@
         <v>72</v>
       </c>
       <c r="B97" s="2">
-        <v>6928</v>
+        <v>6784</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,7 +1544,7 @@
         <v>62</v>
       </c>
       <c r="B99" s="2">
-        <v>6685</v>
+        <v>6505</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
         <v>92</v>
       </c>
       <c r="B100" s="2">
-        <v>6286</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1568,7 +1568,7 @@
         <v>75</v>
       </c>
       <c r="B102" s="2">
-        <v>47022</v>
+        <v>45132</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1576,39 +1576,39 @@
         <v>54</v>
       </c>
       <c r="B103" s="2">
-        <v>16971</v>
+        <v>15621</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>3646</v>
+        <v>17494</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B105" s="2">
-        <v>18772</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B106" s="2">
-        <v>9711</v>
+        <v>13845</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B107" s="2">
-        <v>14154</v>
+        <v>9567</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1616,7 +1616,7 @@
         <v>70</v>
       </c>
       <c r="B108" s="2">
-        <v>46164</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
         <v>50</v>
       </c>
       <c r="B109" s="2">
-        <v>2311</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -768,7 +768,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>81568</v>
+        <v>81472</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -776,151 +776,151 @@
         <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>25018</v>
+        <v>24836</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2">
-        <v>11207</v>
+        <v>21285</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>10177</v>
+        <v>14118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>21817</v>
+        <v>19252</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
-        <v>20120</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
-        <v>14370</v>
+        <v>48692</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>54061</v>
+        <v>12359</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2">
-        <v>50344</v>
+        <v>21733</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>12751</v>
+        <v>52997</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>6555</v>
+        <v>84567</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>22769</v>
+        <v>19567</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>20799</v>
+        <v>21531</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B15" s="2">
-        <v>22091</v>
+        <v>12388</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>86695</v>
+        <v>17031</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>13277</v>
+        <v>33470</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>12528</v>
+        <v>13277</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2">
-        <v>34016</v>
+        <v>20329</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2">
-        <v>17619</v>
+        <v>21256</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
-        <v>21679</v>
+        <v>20158</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -928,103 +928,103 @@
         <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>18629</v>
+        <v>18419</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>20536</v>
+        <v>12068</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2">
-        <v>38578</v>
+        <v>29235</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2">
-        <v>21337</v>
+        <v>37990</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>12236</v>
+        <v>10010</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B27" s="2">
-        <v>10122</v>
+        <v>17944</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>29977</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B29" s="2">
-        <v>8513</v>
+        <v>31754</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2">
-        <v>18364</v>
+        <v>8303</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2">
-        <v>32146</v>
+        <v>20097</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2">
-        <v>2128</v>
+        <v>65726</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2">
-        <v>4999</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2">
-        <v>66907</v>
+        <v>14311</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,31 +1032,31 @@
         <v>14</v>
       </c>
       <c r="B35" s="2">
-        <v>12606</v>
+        <v>12536</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2">
-        <v>14703</v>
+        <v>46695</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B37" s="2">
-        <v>47213</v>
+        <v>18380</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>18716</v>
+        <v>20815</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1064,23 +1064,23 @@
         <v>35</v>
       </c>
       <c r="B39" s="2">
-        <v>52008</v>
+        <v>51436</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2">
-        <v>21123</v>
+        <v>11227</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2">
-        <v>11297</v>
+        <v>34733</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1088,31 +1088,31 @@
         <v>32</v>
       </c>
       <c r="B42" s="2">
-        <v>8581</v>
+        <v>8539</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2">
-        <v>35615</v>
+        <v>22647</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2">
-        <v>22717</v>
+        <v>9737</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2">
-        <v>9737</v>
+        <v>45668</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1120,15 +1120,15 @@
         <v>13</v>
       </c>
       <c r="B46" s="2">
-        <v>23399</v>
+        <v>23133</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2">
-        <v>45965</v>
+        <v>29771</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1136,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>11334</v>
+        <v>11292</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>1528</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>10929</v>
+        <v>10529</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>3651</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1168,7 +1168,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>3990</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>6248</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>8090</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,7 +1192,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9490</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1224,7 +1224,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="2">
-        <v>1998</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1232,7 +1232,7 @@
         <v>100</v>
       </c>
       <c r="B60" s="2">
-        <v>99780</v>
+        <v>96810</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1248,23 +1248,23 @@
         <v>86</v>
       </c>
       <c r="B62" s="2">
-        <v>38241</v>
+        <v>37305</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2">
-        <v>555771</v>
+        <v>139827</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2">
-        <v>151041</v>
+        <v>548697</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1272,7 +1272,7 @@
         <v>82</v>
       </c>
       <c r="B65" s="2">
-        <v>17506</v>
+        <v>17380</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1280,7 +1280,7 @@
         <v>90</v>
       </c>
       <c r="B66" s="2">
-        <v>27468</v>
+        <v>26766</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1288,47 +1288,47 @@
         <v>83</v>
       </c>
       <c r="B67" s="2">
-        <v>69849</v>
+        <v>67275</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>15956</v>
+        <v>34399</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2">
-        <v>63800</v>
+        <v>60940</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
-        <v>3424</v>
+        <v>62296</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B71" s="2">
-        <v>62616</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B72" s="2">
-        <v>35605</v>
+        <v>15956</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>87</v>
       </c>
       <c r="B73" s="2">
-        <v>82149</v>
+        <v>80763</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1344,47 +1344,47 @@
         <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>5772</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B75" s="2">
-        <v>42512</v>
+        <v>84274</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2">
-        <v>86866</v>
+        <v>41666</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2">
-        <v>1346159</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2">
-        <v>7416</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>4968</v>
+        <v>1311041</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1400,47 +1400,47 @@
         <v>78</v>
       </c>
       <c r="B81" s="2">
-        <v>43127</v>
+        <v>42641</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B82" s="2">
-        <v>34008</v>
+        <v>73126</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2">
-        <v>46797</v>
+        <v>33486</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B84" s="2">
-        <v>32959</v>
+        <v>55991</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B85" s="2">
-        <v>56999</v>
+        <v>46365</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B86" s="2">
-        <v>74674</v>
+        <v>32545</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1448,7 +1448,7 @@
         <v>53</v>
       </c>
       <c r="B87" s="2">
-        <v>87587</v>
+        <v>85913</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1456,7 +1456,7 @@
         <v>61</v>
       </c>
       <c r="B88" s="2">
-        <v>61909</v>
+        <v>61495</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1472,7 +1472,7 @@
         <v>98</v>
       </c>
       <c r="B90" s="2">
-        <v>58500</v>
+        <v>57564</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1480,7 +1480,7 @@
         <v>85</v>
       </c>
       <c r="B91" s="2">
-        <v>226543</v>
+        <v>220855</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
         <v>97</v>
       </c>
       <c r="B92" s="2">
-        <v>88737</v>
+        <v>87279</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1496,23 +1496,23 @@
         <v>60</v>
       </c>
       <c r="B93" s="2">
-        <v>36126</v>
+        <v>35946</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B94" s="2">
-        <v>31773</v>
+        <v>84526</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B95" s="2">
-        <v>86722</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1520,15 +1520,15 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>36952</v>
+        <v>36754</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B97" s="2">
-        <v>6784</v>
+        <v>31431</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1536,7 @@
         <v>51</v>
       </c>
       <c r="B98" s="2">
-        <v>6664</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,7 +1544,7 @@
         <v>62</v>
       </c>
       <c r="B99" s="2">
-        <v>6505</v>
+        <v>6433</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1552,7 +1552,7 @@
         <v>92</v>
       </c>
       <c r="B100" s="2">
-        <v>6142</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1565,58 +1565,58 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B102" s="2">
-        <v>45132</v>
+        <v>15279</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>15621</v>
+        <v>16684</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B104" s="2">
-        <v>17494</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B105" s="2">
-        <v>3540</v>
+        <v>13614</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B106" s="2">
-        <v>13845</v>
+        <v>9513</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B107" s="2">
-        <v>9567</v>
+        <v>43788</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B108" s="2">
-        <v>44765</v>
+        <v>73644</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
         <v>50</v>
       </c>
       <c r="B109" s="2">
-        <v>2293</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Количество</t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г</t>
   </si>
 </sst>
 </file>
@@ -431,13 +434,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -743,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -768,119 +777,119 @@
         <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>81472</v>
+        <v>81440</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>24836</v>
+        <v>39921</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
-        <v>21285</v>
+        <v>39480</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2">
-        <v>14118</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>19252</v>
+        <v>12746</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>6317</v>
+        <v>18070</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>48692</v>
+        <v>11603</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>12359</v>
+        <v>18433</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
-        <v>21733</v>
+        <v>19613</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
-        <v>52997</v>
+        <v>73829</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>84567</v>
+        <v>14586</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2">
-        <v>19567</v>
+        <v>20921</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2">
-        <v>21531</v>
+        <v>11898</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
-        <v>12388</v>
+        <v>19876</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>17031</v>
+        <v>12661</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -888,135 +897,135 @@
         <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>33470</v>
+        <v>32630</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2">
-        <v>13277</v>
+        <v>17943</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>20329</v>
+        <v>11298</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2">
-        <v>21256</v>
+        <v>20152</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>20158</v>
+        <v>28241</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
-        <v>18419</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="2">
-        <v>12068</v>
+        <v>9299</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B24" s="2">
-        <v>29235</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>37990</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>10010</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>17944</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B28" s="2">
-        <v>4943</v>
+        <v>30368</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2">
-        <v>31754</v>
+        <v>17370</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2">
-        <v>8303</v>
+        <v>19075</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B31" s="2">
-        <v>20097</v>
+        <v>62696</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2">
-        <v>65726</v>
+        <v>11976</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" s="2">
-        <v>2128</v>
+        <v>50566</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1024,39 +1033,39 @@
         <v>104</v>
       </c>
       <c r="B34" s="2">
-        <v>14311</v>
+        <v>13997</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B35" s="2">
-        <v>12536</v>
+        <v>42023</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>46695</v>
+        <v>19503</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2">
-        <v>18380</v>
+        <v>45393</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2">
-        <v>20815</v>
+        <v>18226</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1064,7 +1073,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="2">
-        <v>51436</v>
+        <v>50036</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1072,55 +1081,55 @@
         <v>37</v>
       </c>
       <c r="B40" s="2">
-        <v>11227</v>
+        <v>11193</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B41" s="2">
-        <v>34733</v>
+        <v>7867</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B42" s="2">
-        <v>8539</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2">
-        <v>22647</v>
+        <v>33935</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2">
-        <v>9737</v>
+        <v>22297</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B45" s="2">
-        <v>45668</v>
+        <v>22321</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2">
-        <v>23133</v>
+        <v>44352</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1137,7 @@
         <v>105</v>
       </c>
       <c r="B47" s="2">
-        <v>29771</v>
+        <v>28637</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,15 +1145,15 @@
         <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>11292</v>
+        <v>10732</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="2">
-        <v>1208</v>
+      <c r="B49" s="4">
+        <v>671</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1161,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>10529</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1160,7 +1169,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>3271</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1168,7 +1177,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>3900</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1176,7 +1185,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>5888</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1193,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>7990</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,23 +1201,23 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9400</v>
+        <v>9350</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="2">
-        <v>1008</v>
+      <c r="B56" s="4">
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="2">
-        <v>1026</v>
+      <c r="B57" s="4">
+        <v>882</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1216,7 +1225,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="2">
-        <v>1476</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1224,7 +1233,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="2">
-        <v>1962</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1232,55 +1241,55 @@
         <v>100</v>
       </c>
       <c r="B60" s="2">
-        <v>96810</v>
+        <v>88584</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="2">
-        <v>1062</v>
+      <c r="B61" s="4">
+        <v>990</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2">
-        <v>37305</v>
+        <v>132199</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2">
-        <v>139827</v>
+        <v>529653</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2">
-        <v>548697</v>
+        <v>16354</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2">
-        <v>17380</v>
+        <v>26226</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2">
-        <v>26766</v>
+        <v>53758</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1288,47 +1297,47 @@
         <v>83</v>
       </c>
       <c r="B67" s="2">
-        <v>67275</v>
+        <v>63567</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B68" s="2">
-        <v>34399</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>60940</v>
+        <v>33121</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2">
-        <v>62296</v>
+        <v>75340</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>3406</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B72" s="2">
-        <v>15956</v>
+        <v>60622</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1336,23 +1345,23 @@
         <v>87</v>
       </c>
       <c r="B73" s="2">
-        <v>80763</v>
+        <v>76785</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B74" s="2">
-        <v>5664</v>
+        <v>15596</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>84274</v>
+        <v>1283033</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1360,95 +1369,95 @@
         <v>88</v>
       </c>
       <c r="B76" s="2">
-        <v>41666</v>
+        <v>41238</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>7200</v>
+        <v>40733</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B78" s="2">
-        <v>4932</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2">
-        <v>1311041</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2">
-        <v>1800</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B81" s="2">
-        <v>42641</v>
+        <v>69256</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2">
-        <v>73126</v>
+        <v>32154</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2">
-        <v>33486</v>
+        <v>54307</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B84" s="2">
-        <v>55991</v>
+        <v>81395</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>46365</v>
+        <v>31454</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B86" s="2">
-        <v>32545</v>
+        <v>45483</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B87" s="2">
-        <v>85913</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1456,63 +1465,63 @@
         <v>61</v>
       </c>
       <c r="B88" s="2">
-        <v>61495</v>
+        <v>60433</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B89" s="2">
-        <v>1854</v>
+        <v>54306</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B90" s="2">
-        <v>57564</v>
+        <v>214897</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B91" s="2">
-        <v>220855</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B92" s="2">
-        <v>87279</v>
+        <v>65997</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>35946</v>
+        <v>84709</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B94" s="2">
-        <v>84526</v>
+        <v>35460</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B95" s="2">
-        <v>6640</v>
+        <v>80855</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1520,7 +1529,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>36754</v>
+        <v>35494</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1528,7 +1537,7 @@
         <v>81</v>
       </c>
       <c r="B97" s="2">
-        <v>31431</v>
+        <v>30811</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1545,7 @@
         <v>51</v>
       </c>
       <c r="B98" s="2">
-        <v>6610</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,7 +1553,7 @@
         <v>62</v>
       </c>
       <c r="B99" s="2">
-        <v>6433</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1552,7 +1561,7 @@
         <v>92</v>
       </c>
       <c r="B100" s="2">
-        <v>6088</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1560,39 +1569,37 @@
         <v>71</v>
       </c>
       <c r="B101" s="2">
-        <v>6181</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B102" s="2">
-        <v>15279</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B102" s="5"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B103" s="2">
-        <v>16684</v>
+        <v>14973</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>3466</v>
+        <v>15590</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B105" s="2">
-        <v>13614</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1600,23 +1607,23 @@
         <v>65</v>
       </c>
       <c r="B106" s="2">
-        <v>9513</v>
+        <v>8919</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B107" s="2">
-        <v>43788</v>
+        <v>13428</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B108" s="2">
-        <v>73644</v>
+        <v>39181</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1624,15 +1631,23 @@
         <v>50</v>
       </c>
       <c r="B109" s="2">
-        <v>2041</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110" s="2">
+        <v>105395</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="2">
-        <v>12454</v>
+      <c r="B111" s="2">
+        <v>12094</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>39921</v>
+        <v>38451</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
         <v>39</v>
       </c>
       <c r="B4" s="2">
-        <v>39480</v>
+        <v>39242</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -801,55 +801,55 @@
         <v>31</v>
       </c>
       <c r="B5" s="2">
-        <v>5488</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>12746</v>
+        <v>17804</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>18070</v>
+        <v>11197</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>11603</v>
+        <v>17481</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
-        <v>18433</v>
+        <v>71309</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2">
-        <v>19613</v>
+        <v>20249</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2">
-        <v>73829</v>
+        <v>18955</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -857,135 +857,135 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <v>14586</v>
+        <v>14096</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2">
-        <v>20921</v>
+        <v>11492</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
-        <v>11898</v>
+        <v>10612</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>19876</v>
+        <v>12087</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
-        <v>12661</v>
+        <v>32532</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2">
-        <v>32630</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>17943</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2">
-        <v>11298</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>20152</v>
+        <v>27737</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B21" s="2">
-        <v>28241</v>
+        <v>19486</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2">
-        <v>20004</v>
+        <v>17691</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B23" s="2">
-        <v>9299</v>
+        <v>35992</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B24" s="2">
-        <v>37000</v>
+        <v>19830</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>4439</v>
+        <v>9033</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2">
-        <v>1960</v>
+        <v>61366</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
-        <v>7900</v>
+        <v>29892</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>30368</v>
+        <v>7816</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
         <v>16</v>
       </c>
       <c r="B29" s="2">
-        <v>17370</v>
+        <v>17048</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1001,23 +1001,23 @@
         <v>23</v>
       </c>
       <c r="B30" s="2">
-        <v>19075</v>
+        <v>18809</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2">
-        <v>62696</v>
+        <v>11752</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2">
-        <v>11976</v>
+        <v>13885</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1025,23 +1025,23 @@
         <v>25</v>
       </c>
       <c r="B33" s="2">
-        <v>50566</v>
+        <v>49768</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B34" s="2">
-        <v>13997</v>
+        <v>41239</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B35" s="2">
-        <v>42023</v>
+        <v>26858</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>19503</v>
+        <v>19167</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="2">
-        <v>45393</v>
+        <v>44385</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="2">
-        <v>18226</v>
+        <v>17960</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1073,7 +1073,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="2">
-        <v>50036</v>
+        <v>49490</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1081,7 +1081,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="2">
-        <v>11193</v>
+        <v>10913</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="2">
-        <v>7867</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1097,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="2">
-        <v>9067</v>
+        <v>8927</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1105,39 +1105,39 @@
         <v>34</v>
       </c>
       <c r="B43" s="2">
-        <v>33935</v>
+        <v>33249</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B44" s="2">
-        <v>22297</v>
+        <v>22013</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2">
-        <v>22321</v>
+        <v>21723</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2">
-        <v>44352</v>
+        <v>28049</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2">
-        <v>28637</v>
+        <v>43848</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>10732</v>
+        <v>10550</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1153,7 +1153,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="4">
-        <v>671</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>9309</v>
+        <v>8679</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>2791</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>3660</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>5272</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1209,7 +1209,7 @@
         <v>43</v>
       </c>
       <c r="B56" s="4">
-        <v>846</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1217,7 +1217,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="4">
-        <v>882</v>
+        <v>846</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1225,7 +1225,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="2">
-        <v>1404</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1233,23 +1233,23 @@
         <v>48</v>
       </c>
       <c r="B59" s="2">
-        <v>1782</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="2">
-        <v>88584</v>
+        <v>42</v>
+      </c>
+      <c r="B60" s="4">
+        <v>990</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="4">
-        <v>990</v>
+        <v>100</v>
+      </c>
+      <c r="B61" s="2">
+        <v>87234</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1257,23 +1257,23 @@
         <v>79</v>
       </c>
       <c r="B62" s="2">
-        <v>132199</v>
+        <v>128743</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2">
-        <v>529653</v>
+        <v>15688</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2">
-        <v>16354</v>
+        <v>521643</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1281,39 +1281,39 @@
         <v>90</v>
       </c>
       <c r="B65" s="2">
-        <v>26226</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2">
-        <v>53758</v>
+        <v>61785</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2">
-        <v>63567</v>
+        <v>52786</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2">
-        <v>3190</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B69" s="2">
-        <v>33121</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1321,23 +1321,23 @@
         <v>84</v>
       </c>
       <c r="B70" s="2">
-        <v>75340</v>
+        <v>73882</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B71" s="2">
-        <v>5160</v>
+        <v>59956</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B72" s="2">
-        <v>60622</v>
+        <v>15218</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1345,63 +1345,63 @@
         <v>87</v>
       </c>
       <c r="B73" s="2">
-        <v>76785</v>
+        <v>75831</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B74" s="2">
-        <v>15596</v>
+        <v>32689</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>1283033</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2">
-        <v>41238</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B77" s="2">
-        <v>40733</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B78" s="2">
-        <v>1692</v>
+        <v>40914</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>4752</v>
+        <v>40085</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2">
-        <v>6462</v>
+        <v>31326</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1409,87 +1409,87 @@
         <v>69</v>
       </c>
       <c r="B81" s="2">
-        <v>69256</v>
+        <v>68392</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B82" s="2">
-        <v>32154</v>
+        <v>79577</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="B83" s="2">
-        <v>54307</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B84" s="2">
-        <v>81395</v>
+        <v>31130</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B85" s="2">
-        <v>31454</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B86" s="2">
-        <v>45483</v>
+        <v>53893</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B87" s="2">
-        <v>1746</v>
+        <v>1504217</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="B88" s="2">
-        <v>60433</v>
+        <v>53478</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B89" s="2">
-        <v>54306</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B90" s="2">
-        <v>214897</v>
+        <v>59911</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B91" s="2">
-        <v>6208</v>
+        <v>211675</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1497,7 +1497,7 @@
         <v>86</v>
       </c>
       <c r="B92" s="2">
-        <v>65997</v>
+        <v>65367</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1505,23 +1505,23 @@
         <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>84709</v>
+        <v>83989</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B94" s="2">
-        <v>35460</v>
+        <v>79883</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B95" s="2">
-        <v>80855</v>
+        <v>35118</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1529,7 +1529,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2">
-        <v>35494</v>
+        <v>35062</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1537,7 +1537,7 @@
         <v>81</v>
       </c>
       <c r="B97" s="2">
-        <v>30811</v>
+        <v>30577</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1545,7 +1545,7 @@
         <v>51</v>
       </c>
       <c r="B98" s="2">
-        <v>6358</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1553,7 +1553,7 @@
         <v>62</v>
       </c>
       <c r="B99" s="2">
-        <v>6321</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1561,7 +1561,7 @@
         <v>92</v>
       </c>
       <c r="B100" s="2">
-        <v>5908</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1569,7 +1569,7 @@
         <v>71</v>
       </c>
       <c r="B101" s="2">
-        <v>6145</v>
+        <v>6073</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1583,23 +1583,23 @@
         <v>54</v>
       </c>
       <c r="B103" s="2">
-        <v>14973</v>
+        <v>14595</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B104" s="2">
-        <v>15590</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>3037</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>65</v>
       </c>
       <c r="B106" s="2">
-        <v>8919</v>
+        <v>8631</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1615,7 +1615,7 @@
         <v>55</v>
       </c>
       <c r="B107" s="2">
-        <v>13428</v>
+        <v>13284</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1623,7 +1623,7 @@
         <v>70</v>
       </c>
       <c r="B108" s="2">
-        <v>39181</v>
+        <v>38533</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1636,18 +1636,18 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B110" s="2">
-        <v>105395</v>
+        <v>11788</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B111" s="2">
-        <v>12094</v>
+        <v>124664</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -777,7 +777,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>81440</v>
+        <v>81408</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,39 +785,39 @@
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>38451</v>
+        <v>32213</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
-        <v>39242</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
-        <v>5474</v>
+        <v>65730</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>17804</v>
+        <v>12611</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B7" s="2">
-        <v>11197</v>
+        <v>17401</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,103 +825,103 @@
         <v>21</v>
       </c>
       <c r="B8" s="2">
-        <v>17481</v>
+        <v>16786</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2">
-        <v>71309</v>
+        <v>9895</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>20249</v>
+        <v>11219</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>18955</v>
+        <v>8123</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>14096</v>
+        <v>18950</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
-        <v>11492</v>
+        <v>10346</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2">
-        <v>10612</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>12087</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="B16" s="2">
-        <v>32532</v>
+        <v>33684</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>19540</v>
+        <v>32466</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
-        <v>1722</v>
+        <v>26575</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
-        <v>4243</v>
+        <v>16795</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2">
-        <v>27737</v>
+        <v>19096</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -929,191 +929,191 @@
         <v>9</v>
       </c>
       <c r="B21" s="2">
-        <v>19486</v>
+        <v>18968</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2">
-        <v>17691</v>
+        <v>7255</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2">
-        <v>35992</v>
+        <v>57906</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2">
-        <v>19830</v>
+        <v>16068</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2">
-        <v>9033</v>
+        <v>28340</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2">
-        <v>61366</v>
+        <v>67012</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2">
-        <v>29892</v>
+        <v>11136</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
-        <v>7816</v>
+        <v>18692</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2">
-        <v>17048</v>
+        <v>47150</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2">
-        <v>18809</v>
+        <v>13549</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B31" s="2">
-        <v>11752</v>
+        <v>19079</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B32" s="2">
-        <v>13885</v>
+        <v>40804</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2">
-        <v>49768</v>
+        <v>17389</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B34" s="2">
-        <v>41239</v>
+        <v>26228</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2">
-        <v>26858</v>
+        <v>42098</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B36" s="2">
-        <v>19167</v>
+        <v>35215</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>44385</v>
+        <v>45935</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2">
-        <v>17960</v>
+        <v>35049</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B39" s="2">
-        <v>49490</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B40" s="2">
-        <v>10913</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2">
-        <v>7713</v>
+        <v>10754</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2">
-        <v>8927</v>
+        <v>32437</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="B43" s="2">
-        <v>33249</v>
+        <v>41272</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2">
-        <v>22013</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1121,23 +1121,23 @@
         <v>36</v>
       </c>
       <c r="B45" s="2">
-        <v>21723</v>
+        <v>21247</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2">
-        <v>28049</v>
+        <v>21593</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2">
-        <v>43848</v>
+        <v>27622</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>10550</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1153,7 +1153,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="4">
-        <v>431</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1161,23 +1161,23 @@
         <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>8679</v>
+        <v>11676</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2">
-        <v>2471</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>3470</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>4952</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1193,7 +1193,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>7940</v>
+        <v>7830</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9350</v>
+        <v>9260</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
         <v>42</v>
       </c>
       <c r="B60" s="4">
-        <v>990</v>
+        <v>972</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1249,319 +1249,319 @@
         <v>100</v>
       </c>
       <c r="B61" s="2">
-        <v>87234</v>
+        <v>85247</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2">
-        <v>128743</v>
+        <v>512496</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2">
-        <v>15688</v>
+        <v>49400</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2">
-        <v>521643</v>
+        <v>169879</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B65" s="2">
-        <v>25272</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2">
-        <v>61785</v>
+        <v>72211</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>52786</v>
+        <v>59181</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B68" s="2">
-        <v>5580</v>
+        <v>74643</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B69" s="2">
-        <v>3046</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2">
-        <v>73882</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2">
-        <v>59956</v>
+        <v>9683</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B72" s="2">
-        <v>15218</v>
+        <v>63928</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2">
-        <v>75831</v>
+        <v>38789</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2">
-        <v>32689</v>
+        <v>39834</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2">
-        <v>5070</v>
+        <v>30732</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B76" s="2">
-        <v>4698</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B77" s="2">
-        <v>1692</v>
+        <v>77597</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2">
-        <v>40914</v>
+        <v>30230</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>40085</v>
+        <v>1459368</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B80" s="2">
-        <v>31326</v>
+        <v>43950</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B81" s="2">
-        <v>68392</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2">
-        <v>79577</v>
+        <v>53820</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>1746</v>
+        <v>25162</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2">
-        <v>31130</v>
+        <v>52793</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B85" s="2">
-        <v>44655</v>
+        <v>42174</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>53893</v>
+        <v>204529</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B87" s="2">
-        <v>1504217</v>
+        <v>96255</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B88" s="2">
-        <v>53478</v>
+        <v>59657</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
-        <v>5866</v>
+        <v>63667</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2">
-        <v>59911</v>
+        <v>81702</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B91" s="2">
-        <v>211675</v>
+        <v>78545</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>65367</v>
+        <v>33658</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B93" s="2">
-        <v>83989</v>
+        <v>34722</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B94" s="2">
-        <v>79883</v>
+        <v>29191</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2">
-        <v>35118</v>
+        <v>48562</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B96" s="2">
-        <v>35062</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B97" s="2">
-        <v>30577</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B98" s="2">
-        <v>6322</v>
+        <v>26576</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2">
-        <v>6213</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B100" s="2">
-        <v>5872</v>
+        <v>6863</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1569,7 +1569,7 @@
         <v>71</v>
       </c>
       <c r="B101" s="2">
-        <v>6073</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1580,34 +1580,34 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B103" s="2">
-        <v>14595</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>2803</v>
+        <v>13754</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B105" s="2">
-        <v>14600</v>
+        <v>7533</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B106" s="2">
-        <v>8631</v>
+        <v>34763</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1615,23 +1615,23 @@
         <v>55</v>
       </c>
       <c r="B107" s="2">
-        <v>13284</v>
+        <v>12870</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B108" s="2">
-        <v>38533</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B109" s="2">
-        <v>1951</v>
+        <v>34262</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
         <v>64</v>
       </c>
       <c r="B110" s="2">
-        <v>11788</v>
+        <v>11752</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1647,7 +1647,7 @@
         <v>75</v>
       </c>
       <c r="B111" s="2">
-        <v>124664</v>
+        <v>166941</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -777,31 +777,31 @@
         <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>81408</v>
+        <v>81376</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>32213</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2">
-        <v>5180</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>65730</v>
+        <v>14251</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -809,143 +809,143 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>12611</v>
+        <v>11309</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>17401</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>16786</v>
+        <v>9301</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2">
-        <v>9895</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>11219</v>
+        <v>15674</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
-        <v>8123</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>18950</v>
+        <v>15916</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B13" s="2">
-        <v>10346</v>
+        <v>29302</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>1554</v>
+        <v>7381</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
-        <v>3821</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B16" s="2">
-        <v>33684</v>
+        <v>22907</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2">
-        <v>32466</v>
+        <v>14793</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
-        <v>26575</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2">
-        <v>16795</v>
+        <v>55560</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>19096</v>
+        <v>31444</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" s="2">
-        <v>18968</v>
+        <v>61891</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
-        <v>7255</v>
+        <v>49828</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2">
-        <v>57906</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="2">
-        <v>16068</v>
+        <v>13870</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -961,23 +961,23 @@
         <v>19</v>
       </c>
       <c r="B25" s="2">
-        <v>28340</v>
+        <v>24700</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2">
-        <v>67012</v>
+        <v>95294</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>11136</v>
+        <v>38512</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -985,39 +985,39 @@
         <v>23</v>
       </c>
       <c r="B28" s="2">
-        <v>18692</v>
+        <v>15654</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2">
-        <v>47150</v>
+        <v>11421</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B30" s="2">
-        <v>13549</v>
+        <v>16853</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2">
-        <v>19079</v>
+        <v>36604</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2">
-        <v>40804</v>
+        <v>36904</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1025,7 +1025,7 @@
         <v>38</v>
       </c>
       <c r="B33" s="2">
-        <v>17389</v>
+        <v>16423</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1033,15 +1033,15 @@
         <v>18</v>
       </c>
       <c r="B34" s="2">
-        <v>26228</v>
+        <v>25304</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2">
-        <v>42098</v>
+        <v>31745</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,63 +1049,63 @@
         <v>108</v>
       </c>
       <c r="B36" s="2">
-        <v>35215</v>
+        <v>32345</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B37" s="2">
-        <v>45935</v>
+        <v>15944</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2">
-        <v>35049</v>
+        <v>44913</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>17400</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B40" s="2">
-        <v>7363</v>
+        <v>36512</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2">
-        <v>10754</v>
+        <v>28559</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
-        <v>32437</v>
+        <v>18797</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B43" s="2">
-        <v>41272</v>
+        <v>19087</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1113,31 +1113,31 @@
         <v>3</v>
       </c>
       <c r="B44" s="2">
-        <v>8759</v>
+        <v>8255</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2">
-        <v>21247</v>
+        <v>7307</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2">
-        <v>21593</v>
+        <v>24738</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2">
-        <v>27622</v>
+        <v>35556</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1145,31 +1145,29 @@
         <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>10200</v>
+        <v>10088</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="4">
-        <v>350</v>
-      </c>
+      <c r="B49" s="5"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>11676</v>
+        <v>15121</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2">
-        <v>3400</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1177,15 +1175,15 @@
         <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>4380</v>
+        <v>3840</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>4770</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1193,7 +1191,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>7830</v>
+        <v>7700</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1201,7 +1199,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9260</v>
+        <v>9110</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1209,7 +1207,7 @@
         <v>43</v>
       </c>
       <c r="B56" s="4">
-        <v>810</v>
+        <v>666</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1217,7 +1215,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="4">
-        <v>846</v>
+        <v>720</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1225,7 +1223,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="2">
-        <v>1386</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1233,7 +1231,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="2">
-        <v>1692</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1241,295 +1239,295 @@
         <v>42</v>
       </c>
       <c r="B60" s="4">
-        <v>972</v>
+        <v>864</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2">
-        <v>85247</v>
+        <v>462852</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2">
-        <v>512496</v>
+        <v>112674</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2">
-        <v>49400</v>
+        <v>153157</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B64" s="2">
-        <v>169879</v>
+        <v>67407</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B65" s="2">
-        <v>4764</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2">
-        <v>72211</v>
+        <v>26286</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2">
-        <v>59181</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2">
-        <v>74643</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2">
-        <v>1692</v>
+        <v>59464</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2">
-        <v>4680</v>
+        <v>35981</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B71" s="2">
-        <v>9683</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B72" s="2">
-        <v>63928</v>
+        <v>38052</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B73" s="2">
-        <v>38789</v>
+        <v>72251</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>39834</v>
+        <v>39108</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>30732</v>
+        <v>27170</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>1746</v>
+        <v>1336014</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2">
-        <v>77597</v>
+        <v>23758</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B78" s="2">
-        <v>30230</v>
+        <v>37962</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B79" s="2">
-        <v>1459368</v>
+        <v>73114</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B80" s="2">
-        <v>43950</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2">
-        <v>5398</v>
+        <v>49841</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2">
-        <v>53820</v>
+        <v>187033</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B83" s="2">
-        <v>25162</v>
+        <v>51534</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B84" s="2">
-        <v>52793</v>
+        <v>55157</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>42174</v>
+        <v>91629</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>204529</v>
+        <v>97429</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2">
-        <v>96255</v>
+        <v>75006</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>59657</v>
+        <v>59941</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B89" s="2">
-        <v>63667</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B90" s="2">
-        <v>81702</v>
+        <v>72659</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>78545</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>33658</v>
+        <v>26365</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2">
-        <v>34722</v>
+        <v>31570</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B94" s="2">
-        <v>29191</v>
+        <v>83499</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B95" s="2">
-        <v>48562</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2">
-        <v>6160</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1537,7 +1535,7 @@
         <v>62</v>
       </c>
       <c r="B97" s="2">
-        <v>5997</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1545,15 +1543,15 @@
         <v>52</v>
       </c>
       <c r="B98" s="2">
-        <v>26576</v>
+        <v>26018</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B99" s="2">
-        <v>5656</v>
+        <v>11334</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1561,7 +1559,7 @@
         <v>49</v>
       </c>
       <c r="B100" s="2">
-        <v>6863</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1569,77 +1567,79 @@
         <v>71</v>
       </c>
       <c r="B101" s="2">
-        <v>6001</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102" s="5"/>
+        <v>66</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1813</v>
+      </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B103" s="2">
-        <v>2659</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B104" s="2">
-        <v>13754</v>
+        <v>27959</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B105" s="2">
-        <v>7533</v>
+        <v>11016</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2">
-        <v>34763</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B107" s="2">
-        <v>12870</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B108" s="2">
-        <v>1807</v>
+        <v>30932</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B109" s="2">
-        <v>34262</v>
+        <v>10384</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B110" s="2">
-        <v>11752</v>
+        <v>30884</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1647,7 +1647,7 @@
         <v>75</v>
       </c>
       <c r="B111" s="2">
-        <v>166941</v>
+        <v>157311</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -798,26 +798,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2">
-        <v>14251</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2">
-        <v>11309</v>
+        <v>13972</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2">
-        <v>7574</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,55 +825,55 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>9301</v>
+        <v>9161</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>13972</v>
+        <v>22627</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>15674</v>
+        <v>15776</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3317</v>
+        <v>14513</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2">
-        <v>15916</v>
+        <v>29302</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>29302</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>7381</v>
+        <v>49548</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -886,226 +886,226 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>22907</v>
+        <v>61611</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>14793</v>
+        <v>9106</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B18" s="2">
-        <v>6121</v>
+        <v>55560</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>55560</v>
+        <v>31444</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>31444</v>
+        <v>24630</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>61891</v>
+        <v>95294</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2">
-        <v>49828</v>
+        <v>13870</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>9176</v>
+        <v>38372</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>13870</v>
+        <v>15514</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B25" s="2">
-        <v>24700</v>
+        <v>11421</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2">
-        <v>95294</v>
+        <v>16713</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="B27" s="2">
-        <v>38512</v>
+        <v>36604</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2">
-        <v>15654</v>
+        <v>36624</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
-        <v>11421</v>
+        <v>16283</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B30" s="2">
-        <v>16853</v>
+        <v>25262</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="B31" s="2">
-        <v>36604</v>
+        <v>21165</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2">
-        <v>36904</v>
+        <v>31605</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B33" s="2">
-        <v>16423</v>
+        <v>32345</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B34" s="2">
-        <v>25304</v>
+        <v>15874</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>31745</v>
+        <v>9606</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>32345</v>
+        <v>28559</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>15944</v>
+        <v>44913</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2">
-        <v>44913</v>
+        <v>29716</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2">
-        <v>9648</v>
+        <v>36512</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2">
-        <v>36512</v>
+        <v>18657</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2">
-        <v>28559</v>
+        <v>19017</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="B42" s="2">
-        <v>18797</v>
+        <v>24738</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2">
-        <v>19087</v>
+        <v>13314</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,18 +1126,18 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2">
-        <v>24738</v>
+        <v>35556</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B47" s="2">
-        <v>35556</v>
+        <v>37318</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>10088</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1159,31 +1159,31 @@
         <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>15121</v>
+        <v>14921</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>3830</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>3840</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>5610</v>
+        <v>8708</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>43</v>
       </c>
       <c r="B56" s="4">
-        <v>666</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="4">
-        <v>720</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="2">
-        <v>1242</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
         <v>80</v>
       </c>
       <c r="B61" s="2">
-        <v>462852</v>
+        <v>491598</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1255,31 +1255,31 @@
         <v>100</v>
       </c>
       <c r="B62" s="2">
-        <v>112674</v>
+        <v>111774</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B63" s="2">
-        <v>153157</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2">
-        <v>67407</v>
+        <v>9449</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2">
-        <v>1512</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1287,159 +1287,159 @@
         <v>99</v>
       </c>
       <c r="B66" s="2">
-        <v>26286</v>
+        <v>26106</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B67" s="2">
-        <v>4554</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2">
-        <v>9449</v>
+        <v>59104</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2">
-        <v>59464</v>
+        <v>35981</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>35981</v>
+        <v>71711</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2">
-        <v>1638</v>
+        <v>38928</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>38052</v>
+        <v>27080</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B73" s="2">
-        <v>72251</v>
+        <v>38052</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2">
-        <v>39108</v>
+        <v>1336014</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>27170</v>
+        <v>203442</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2">
-        <v>1336014</v>
+        <v>72818</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2">
-        <v>23758</v>
+        <v>49841</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>37962</v>
+        <v>23398</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>73114</v>
+        <v>37962</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B80" s="2">
-        <v>5164</v>
+        <v>186133</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B81" s="2">
-        <v>49841</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B82" s="2">
-        <v>187033</v>
+        <v>51534</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>51534</v>
+        <v>91089</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2">
-        <v>55157</v>
+        <v>90483</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B85" s="2">
-        <v>91629</v>
+        <v>55157</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1447,63 +1447,63 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>97429</v>
+        <v>97069</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2">
-        <v>75006</v>
+        <v>44476</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B88" s="2">
-        <v>59941</v>
+        <v>72119</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
-        <v>31590</v>
+        <v>59941</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2">
-        <v>72659</v>
+        <v>74826</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B91" s="2">
-        <v>44476</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>26365</v>
+        <v>31570</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2">
-        <v>31570</v>
+        <v>26365</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1519,23 +1519,23 @@
         <v>51</v>
       </c>
       <c r="B95" s="2">
-        <v>6034</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B96" s="2">
-        <v>5152</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2">
-        <v>5709</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1543,23 +1543,23 @@
         <v>52</v>
       </c>
       <c r="B98" s="2">
-        <v>26018</v>
+        <v>25928</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B99" s="2">
-        <v>11334</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B100" s="2">
-        <v>6503</v>
+        <v>11334</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1572,74 +1572,74 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B102" s="2">
-        <v>1813</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B103" s="2">
-        <v>5391</v>
+        <v>27959</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B104" s="2">
-        <v>27959</v>
+        <v>10962</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2">
-        <v>11016</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B106" s="2">
-        <v>7245</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B107" s="2">
-        <v>1789</v>
+        <v>30572</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B108" s="2">
-        <v>30932</v>
+        <v>10204</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B109" s="2">
-        <v>10384</v>
+        <v>30704</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B110" s="2">
-        <v>30884</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1647,7 +1647,7 @@
         <v>75</v>
       </c>
       <c r="B111" s="2">
-        <v>157311</v>
+        <v>157131</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -777,183 +777,183 @@
         <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>81376</v>
+        <v>81344</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2">
-        <v>3052</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
-        <v>6871</v>
+        <v>6454</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2">
-        <v>7574</v>
+        <v>12516</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>13972</v>
+        <v>8167</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>3177</v>
+        <v>14250</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2">
-        <v>9161</v>
+        <v>26054</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>22627</v>
+        <v>52581</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>15776</v>
+        <v>21241</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2">
-        <v>14513</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>29302</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>6051</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
-        <v>49548</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
-        <v>1512</v>
+        <v>84528</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>61611</v>
+        <v>14247</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2">
-        <v>9106</v>
+        <v>52830</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2">
-        <v>55560</v>
+        <v>29218</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>31444</v>
+        <v>22782</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>24630</v>
+        <v>12806</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>95294</v>
+        <v>13834</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>13870</v>
+        <v>35936</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>38372</v>
+        <v>15271</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2">
-        <v>15514</v>
+        <v>33054</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -966,130 +966,130 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B26" s="2">
-        <v>16713</v>
+        <v>36352</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2">
-        <v>36604</v>
+        <v>15009</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2">
-        <v>36624</v>
+        <v>13788</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2">
-        <v>16283</v>
+        <v>28763</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
-        <v>25262</v>
+        <v>20157</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2">
-        <v>21165</v>
+        <v>30343</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>31605</v>
+        <v>24702</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B33" s="2">
-        <v>32345</v>
+        <v>33278</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
-        <v>15874</v>
+        <v>21026</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2">
-        <v>9606</v>
+        <v>16268</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>28559</v>
+        <v>26958</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>44913</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B38" s="2">
-        <v>29716</v>
+        <v>26459</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2">
-        <v>36512</v>
+        <v>42981</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2">
-        <v>18657</v>
+        <v>12334</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="B41" s="2">
-        <v>19017</v>
+        <v>19219</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1097,15 +1097,15 @@
         <v>105</v>
       </c>
       <c r="B42" s="2">
-        <v>24738</v>
+        <v>24234</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B43" s="2">
-        <v>13314</v>
+        <v>18891</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1113,23 +1113,23 @@
         <v>3</v>
       </c>
       <c r="B44" s="2">
-        <v>8255</v>
+        <v>8031</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2">
-        <v>7307</v>
+        <v>33456</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2">
-        <v>35556</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1137,7 +1137,7 @@
         <v>22</v>
       </c>
       <c r="B47" s="2">
-        <v>37318</v>
+        <v>36240</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>33</v>
       </c>
       <c r="B48" s="2">
-        <v>10018</v>
+        <v>9766</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1159,7 +1159,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>14921</v>
+        <v>14985</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1167,7 +1167,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>3790</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1183,7 +1183,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>8708</v>
+        <v>8468</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1199,7 +1199,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9110</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1207,7 +1207,7 @@
         <v>43</v>
       </c>
       <c r="B56" s="4">
-        <v>612</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1215,7 +1215,7 @@
         <v>47</v>
       </c>
       <c r="B57" s="4">
-        <v>630</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1223,7 +1223,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="2">
-        <v>1062</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1231,7 +1231,7 @@
         <v>48</v>
       </c>
       <c r="B59" s="2">
-        <v>1386</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1239,23 +1239,23 @@
         <v>42</v>
       </c>
       <c r="B60" s="4">
-        <v>864</v>
+        <v>828</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2">
-        <v>491598</v>
+        <v>108876</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2">
-        <v>111774</v>
+        <v>509468</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1263,55 +1263,55 @@
         <v>46</v>
       </c>
       <c r="B63" s="2">
-        <v>1512</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2">
-        <v>9449</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2">
-        <v>4554</v>
+        <v>9395</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B66" s="2">
-        <v>26106</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2">
-        <v>1638</v>
+        <v>24684</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68" s="2">
-        <v>59104</v>
+        <v>24506</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" s="2">
-        <v>35981</v>
+        <v>35688</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1319,63 +1319,63 @@
         <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>71711</v>
+        <v>70019</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2">
-        <v>38928</v>
+        <v>189546</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2">
-        <v>27080</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>38052</v>
+        <v>1299546</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2">
-        <v>1336014</v>
+        <v>172471</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B75" s="2">
-        <v>203442</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2">
-        <v>72818</v>
+        <v>47897</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2">
-        <v>49841</v>
+        <v>71090</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>23398</v>
+        <v>22822</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1391,127 +1391,127 @@
         <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>37962</v>
+        <v>37224</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2">
-        <v>186133</v>
+        <v>50346</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B81" s="2">
-        <v>5128</v>
+        <v>89595</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>51534</v>
+        <v>92551</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>91089</v>
+        <v>89979</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84" s="2">
-        <v>90483</v>
+        <v>42208</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>55157</v>
+        <v>58159</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B86" s="2">
-        <v>97069</v>
+        <v>69149</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B87" s="2">
-        <v>44476</v>
+        <v>54293</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2">
-        <v>72119</v>
+        <v>71604</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B89" s="2">
-        <v>59941</v>
+        <v>30582</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2">
-        <v>74826</v>
+        <v>30454</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2">
-        <v>31500</v>
+        <v>25902</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B92" s="2">
-        <v>31570</v>
+        <v>77945</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B93" s="2">
-        <v>26365</v>
+        <v>82023</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B94" s="2">
-        <v>83499</v>
+        <v>58481</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1519,7 +1519,7 @@
         <v>51</v>
       </c>
       <c r="B95" s="2">
-        <v>5980</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1527,7 +1527,7 @@
         <v>62</v>
       </c>
       <c r="B96" s="2">
-        <v>5673</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1535,7 +1535,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="2">
-        <v>5152</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1543,7 +1543,7 @@
         <v>52</v>
       </c>
       <c r="B98" s="2">
-        <v>25928</v>
+        <v>25460</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>49</v>
       </c>
       <c r="B99" s="2">
-        <v>6449</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1559,7 +1559,7 @@
         <v>73</v>
       </c>
       <c r="B100" s="2">
-        <v>11334</v>
+        <v>11118</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1567,39 +1567,39 @@
         <v>71</v>
       </c>
       <c r="B101" s="2">
-        <v>5947</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B102" s="2">
-        <v>5301</v>
+        <v>26537</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B103" s="2">
-        <v>27959</v>
+        <v>10134</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2">
-        <v>10962</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B105" s="2">
-        <v>7245</v>
+        <v>10964</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1607,7 +1607,7 @@
         <v>50</v>
       </c>
       <c r="B106" s="2">
-        <v>1789</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1615,23 +1615,23 @@
         <v>54</v>
       </c>
       <c r="B107" s="2">
-        <v>30572</v>
+        <v>29960</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2">
-        <v>10204</v>
+        <v>28130</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B109" s="2">
-        <v>30704</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
         <v>66</v>
       </c>
       <c r="B110" s="2">
-        <v>6565</v>
+        <v>6421</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1647,7 +1647,7 @@
         <v>75</v>
       </c>
       <c r="B111" s="2">
-        <v>157131</v>
+        <v>148743</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,9 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -755,7 +752,7 @@
   <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -777,7 +774,7 @@
         <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>81344</v>
+        <v>81024</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -785,103 +782,103 @@
         <v>30</v>
       </c>
       <c r="B3" s="2">
-        <v>2141</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2">
-        <v>6454</v>
+        <v>22792</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>12516</v>
+        <v>18259</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>8167</v>
+        <v>45525</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>14250</v>
+        <v>39734</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
-        <v>26054</v>
+        <v>44066</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
-        <v>52581</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>21241</v>
+        <v>13746</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>1400</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2">
-        <v>8070</v>
+        <v>72572</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>44676</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2">
-        <v>5631</v>
+        <v>19842</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
-        <v>84528</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -889,285 +886,287 @@
         <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>14247</v>
+        <v>13645</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
-        <v>52830</v>
+        <v>28406</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>29218</v>
+        <v>32002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>22782</v>
+        <v>12910</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>12806</v>
+        <v>14039</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
-        <v>13834</v>
+        <v>30282</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2">
-        <v>35936</v>
+        <v>10962</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
-        <v>15271</v>
+        <v>14057</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2">
-        <v>33054</v>
+        <v>33950</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2">
-        <v>11421</v>
+        <v>12220</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B26" s="2">
-        <v>36352</v>
+        <v>25627</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2">
-        <v>15009</v>
+        <v>18743</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
-        <v>13788</v>
+        <v>14728</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2">
-        <v>28763</v>
+        <v>23666</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>20157</v>
+        <v>23211</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B31" s="2">
-        <v>30343</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B32" s="2">
-        <v>24702</v>
+        <v>28855</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>33278</v>
+        <v>20466</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2">
-        <v>21026</v>
+        <v>24592</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>16268</v>
+        <v>8696</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2">
-        <v>26958</v>
+        <v>11158</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>9480</v>
+        <v>41497</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2">
-        <v>26459</v>
+        <v>7404</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="B39" s="2">
-        <v>42981</v>
+        <v>22736</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="B40" s="2">
-        <v>12334</v>
+        <v>18533</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2">
-        <v>19219</v>
+        <v>18177</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B42" s="2">
-        <v>24234</v>
+        <v>31804</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2">
-        <v>18891</v>
+        <v>34042</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>8031</v>
+        <v>19605</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2">
-        <v>33456</v>
+        <v>7069</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B46" s="2">
-        <v>7223</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2">
-        <v>36240</v>
+        <v>36567</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B48" s="2">
-        <v>9766</v>
+        <v>28796</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="B49" s="2">
+        <v>13935</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2">
-        <v>14985</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>3770</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1175,7 +1174,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>5590</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1183,7 +1182,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>8468</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1191,7 +1190,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>7700</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1199,7 +1198,7 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>9100</v>
+        <v>8870</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1207,63 +1206,63 @@
         <v>43</v>
       </c>
       <c r="B56" s="4">
-        <v>432</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B57" s="4">
-        <v>594</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1026</v>
+        <v>47</v>
+      </c>
+      <c r="B58" s="4">
+        <v>540</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1350</v>
+        <v>45</v>
+      </c>
+      <c r="B59" s="4">
+        <v>936</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="4">
-        <v>828</v>
+        <v>48</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1170</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2">
-        <v>108876</v>
+        <v>458366</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="B62" s="2">
-        <v>509468</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2">
-        <v>1494</v>
+        <v>156894</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1271,7 +1270,7 @@
         <v>94</v>
       </c>
       <c r="B64" s="2">
-        <v>4572</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1279,7 +1278,7 @@
         <v>95</v>
       </c>
       <c r="B65" s="2">
-        <v>9395</v>
+        <v>8694</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1287,111 +1286,111 @@
         <v>44</v>
       </c>
       <c r="B66" s="2">
-        <v>1602</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2">
-        <v>24684</v>
+        <v>131322</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B68" s="2">
-        <v>24506</v>
+        <v>56916</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2">
-        <v>35688</v>
+        <v>39635</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>70019</v>
+        <v>22868</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>189546</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72" s="2">
-        <v>4822</v>
+        <v>1157922</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2">
-        <v>1299546</v>
+        <v>153949</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B74" s="2">
-        <v>172471</v>
+        <v>64196</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2">
-        <v>37854</v>
+        <v>75447</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2">
-        <v>47897</v>
+        <v>21076</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B77" s="2">
-        <v>71090</v>
+        <v>80761</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B78" s="2">
-        <v>22822</v>
+        <v>34974</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2">
-        <v>37224</v>
+        <v>82779</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1399,167 +1398,167 @@
         <v>101</v>
       </c>
       <c r="B80" s="2">
-        <v>50346</v>
+        <v>47466</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2">
-        <v>89595</v>
+        <v>31380</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B82" s="2">
-        <v>92551</v>
+        <v>70611</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83" s="2">
-        <v>89979</v>
+        <v>39760</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2">
-        <v>42208</v>
+        <v>66240</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B85" s="2">
-        <v>58159</v>
+        <v>65063</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B86" s="2">
-        <v>69149</v>
+        <v>51665</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>54293</v>
+        <v>55459</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="B88" s="2">
-        <v>71604</v>
+        <v>29070</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2">
-        <v>30582</v>
+        <v>29086</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B90" s="2">
-        <v>30454</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B91" s="2">
-        <v>25902</v>
+        <v>72779</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>77945</v>
+        <v>24858</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B93" s="2">
-        <v>82023</v>
+        <v>54917</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B94" s="2">
-        <v>58481</v>
+        <v>47195</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
-        <v>5926</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B96" s="2">
-        <v>5475</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B97" s="2">
-        <v>5148</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B98" s="2">
-        <v>25460</v>
+        <v>10650</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B99" s="2">
-        <v>6323</v>
+        <v>24578</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B100" s="2">
-        <v>11118</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1567,87 +1566,87 @@
         <v>71</v>
       </c>
       <c r="B101" s="2">
-        <v>5839</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B102" s="2">
-        <v>26537</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2">
-        <v>10134</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B104" s="2">
-        <v>7245</v>
+        <v>10226</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B105" s="2">
-        <v>10964</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2">
-        <v>1627</v>
+        <v>26222</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B107" s="2">
-        <v>29960</v>
+        <v>9484</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B108" s="2">
-        <v>28130</v>
+        <v>28646</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B109" s="2">
-        <v>10042</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B110" s="2">
-        <v>6421</v>
+        <v>136881</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B111" s="2">
-        <v>148743</v>
+        <v>30255</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -781,16 +781,16 @@
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2">
-        <v>1595</v>
+      <c r="B3" s="4">
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>22792</v>
+        <v>3839</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -798,263 +798,263 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>18259</v>
+        <v>15417</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>45525</v>
+        <v>34736</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
-        <v>39734</v>
+        <v>66160</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
-        <v>44066</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
-        <v>4875</v>
+        <v>40944</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>13746</v>
+        <v>6894</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
-        <v>10314</v>
+        <v>18666</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2">
-        <v>72572</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
-        <v>7650</v>
+        <v>28306</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>19842</v>
+        <v>11720</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>1358</v>
+        <v>12681</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
-        <v>13645</v>
+        <v>27734</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
-        <v>28406</v>
+        <v>11635</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2">
-        <v>32002</v>
+        <v>24416</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
-        <v>12910</v>
+        <v>28392</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2">
-        <v>14039</v>
+        <v>15635</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B21" s="2">
-        <v>30282</v>
+        <v>32046</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>10962</v>
+        <v>11058</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B23" s="2">
-        <v>14057</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2">
-        <v>33950</v>
+        <v>24143</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2">
-        <v>12220</v>
+        <v>12656</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
-        <v>25627</v>
+        <v>21181</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>18743</v>
+        <v>20284</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="B28" s="2">
-        <v>14728</v>
+        <v>26741</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2">
-        <v>23666</v>
+        <v>22828</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
-        <v>23211</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2">
-        <v>30240</v>
+        <v>22630</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>28855</v>
+        <v>22028</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2">
-        <v>20466</v>
+        <v>10304</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
-        <v>24592</v>
+        <v>38249</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="B35" s="2">
-        <v>8696</v>
+        <v>21112</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2">
-        <v>11158</v>
+        <v>44016</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="B37" s="2">
-        <v>41497</v>
+        <v>16741</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,63 +1062,63 @@
         <v>3</v>
       </c>
       <c r="B38" s="2">
-        <v>7404</v>
+        <v>7012</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2">
-        <v>22736</v>
+        <v>16903</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>18533</v>
+        <v>18331</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B41" s="2">
-        <v>18177</v>
+        <v>30110</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" s="2">
-        <v>31804</v>
+        <v>32236</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2">
-        <v>34042</v>
+        <v>6579</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B44" s="2">
-        <v>19605</v>
+        <v>106887</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2">
-        <v>7069</v>
+        <v>27111</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,7 +1126,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="2">
-        <v>9514</v>
+        <v>9332</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
         <v>102</v>
       </c>
       <c r="B47" s="2">
-        <v>36567</v>
+        <v>36175</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
         <v>26</v>
       </c>
       <c r="B48" s="2">
-        <v>28796</v>
+        <v>28152</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>93</v>
       </c>
       <c r="B49" s="2">
-        <v>13935</v>
+        <v>11565</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="2">
-        <v>3440</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>3006</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>5450</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>8108</v>
+        <v>7718</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1214,7 +1214,7 @@
         <v>42</v>
       </c>
       <c r="B57" s="4">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1222,7 +1222,7 @@
         <v>47</v>
       </c>
       <c r="B58" s="4">
-        <v>540</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,7 +1238,7 @@
         <v>48</v>
       </c>
       <c r="B60" s="2">
-        <v>1170</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1246,7 +1246,7 @@
         <v>80</v>
       </c>
       <c r="B61" s="2">
-        <v>458366</v>
+        <v>428216</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1254,39 +1254,39 @@
         <v>46</v>
       </c>
       <c r="B62" s="2">
-        <v>1440</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2">
-        <v>156894</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2">
-        <v>4482</v>
+        <v>8388</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2">
-        <v>8694</v>
+        <v>145482</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B66" s="2">
-        <v>1548</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1294,23 +1294,23 @@
         <v>100</v>
       </c>
       <c r="B67" s="2">
-        <v>131322</v>
+        <v>123870</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B68" s="2">
-        <v>56916</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2">
-        <v>39635</v>
+        <v>133213</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1318,63 +1318,63 @@
         <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>22868</v>
+        <v>20978</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2">
-        <v>4246</v>
+        <v>37601</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2">
-        <v>1157922</v>
+        <v>17944</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2">
-        <v>153949</v>
+        <v>69619</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B74" s="2">
-        <v>64196</v>
+        <v>68337</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B75" s="2">
-        <v>75447</v>
+        <v>1100034</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B76" s="2">
-        <v>21076</v>
+        <v>61082</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B77" s="2">
-        <v>80761</v>
+        <v>76929</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1382,47 +1382,47 @@
         <v>68</v>
       </c>
       <c r="B78" s="2">
-        <v>34974</v>
+        <v>33876</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2">
-        <v>82779</v>
+        <v>28392</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B80" s="2">
-        <v>47466</v>
+        <v>50653</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" s="2">
-        <v>31380</v>
+        <v>45018</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2">
-        <v>70611</v>
+        <v>38032</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B83" s="2">
-        <v>39760</v>
+        <v>65985</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2">
-        <v>66240</v>
+        <v>63360</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1438,39 +1438,39 @@
         <v>63</v>
       </c>
       <c r="B85" s="2">
-        <v>65063</v>
+        <v>64055</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" s="2">
-        <v>51665</v>
+        <v>26730</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2">
-        <v>55459</v>
+        <v>26782</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B88" s="2">
-        <v>29070</v>
+        <v>48587</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B89" s="2">
-        <v>29086</v>
+        <v>83214</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1478,23 +1478,23 @@
         <v>76</v>
       </c>
       <c r="B90" s="2">
-        <v>44544</v>
+        <v>42366</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B91" s="2">
-        <v>72779</v>
+        <v>23004</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B92" s="2">
-        <v>24858</v>
+        <v>70655</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1502,7 +1502,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="2">
-        <v>54917</v>
+        <v>52073</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1510,7 +1510,7 @@
         <v>88</v>
       </c>
       <c r="B94" s="2">
-        <v>47195</v>
+        <v>44891</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1518,7 +1518,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="2">
-        <v>4698</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
         <v>51</v>
       </c>
       <c r="B96" s="2">
-        <v>5746</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,31 +1534,31 @@
         <v>62</v>
       </c>
       <c r="B97" s="2">
-        <v>5367</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B98" s="2">
-        <v>10650</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B99" s="2">
-        <v>24578</v>
+        <v>10290</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B100" s="2">
-        <v>6143</v>
+        <v>23228</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1566,31 +1566,31 @@
         <v>71</v>
       </c>
       <c r="B101" s="2">
-        <v>5324</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B102" s="2">
-        <v>1249</v>
+        <v>8318</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B103" s="2">
-        <v>7245</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2">
-        <v>10226</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1598,7 +1598,7 @@
         <v>70</v>
       </c>
       <c r="B105" s="2">
-        <v>44123</v>
+        <v>40127</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1606,23 +1606,23 @@
         <v>91</v>
       </c>
       <c r="B106" s="2">
-        <v>26222</v>
+        <v>20822</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B107" s="2">
-        <v>9484</v>
+        <v>25406</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B108" s="2">
-        <v>28646</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1630,7 +1630,7 @@
         <v>66</v>
       </c>
       <c r="B109" s="2">
-        <v>6043</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1638,7 +1638,7 @@
         <v>75</v>
       </c>
       <c r="B110" s="2">
-        <v>136881</v>
+        <v>127809</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1646,7 +1646,7 @@
         <v>55</v>
       </c>
       <c r="B111" s="2">
-        <v>30255</v>
+        <v>29913</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,6 +442,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -751,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -774,39 +777,39 @@
         <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>81024</v>
+        <v>80864</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4">
-        <v>937</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2831</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>3839</v>
+        <v>30704</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>15417</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2">
-        <v>34736</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,87 +817,87 @@
         <v>27</v>
       </c>
       <c r="B7" s="2">
-        <v>66160</v>
+        <v>64928</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
-        <v>9180</v>
+        <v>25282</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>40944</v>
+        <v>16272</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
-        <v>6894</v>
+        <v>40496</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
-        <v>18666</v>
+        <v>10403</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>1302</v>
+        <v>11160</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
-        <v>28306</v>
+        <v>12037</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>11720</v>
+        <v>24360</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2">
-        <v>12681</v>
+        <v>26726</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>27734</v>
+        <v>9826</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
-        <v>11635</v>
+        <v>11088</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -902,23 +905,23 @@
         <v>103</v>
       </c>
       <c r="B18" s="2">
-        <v>24416</v>
+        <v>23744</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2">
-        <v>28392</v>
+        <v>9884</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
-        <v>15635</v>
+        <v>22127</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -926,63 +929,63 @@
         <v>107</v>
       </c>
       <c r="B21" s="2">
-        <v>32046</v>
+        <v>30912</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>11058</v>
+        <v>15411</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B23" s="2">
-        <v>10780</v>
+        <v>24277</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>24143</v>
+        <v>8736</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
-        <v>12656</v>
+        <v>7380</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2">
-        <v>21181</v>
+        <v>20284</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
-        <v>20284</v>
+        <v>20733</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2">
-        <v>26741</v>
+        <v>20460</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -990,39 +993,39 @@
         <v>7</v>
       </c>
       <c r="B29" s="2">
-        <v>22828</v>
+        <v>21596</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B30" s="2">
-        <v>7940</v>
+        <v>21902</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="B31" s="2">
-        <v>22630</v>
+        <v>18858</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B32" s="2">
-        <v>22028</v>
+        <v>15509</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2">
-        <v>10304</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1030,47 +1033,47 @@
         <v>35</v>
       </c>
       <c r="B34" s="2">
-        <v>38249</v>
+        <v>37017</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35" s="2">
-        <v>21112</v>
+        <v>42434</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2">
-        <v>44016</v>
+        <v>15699</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2">
-        <v>16741</v>
+        <v>32606</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
-        <v>7012</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2">
-        <v>16903</v>
+        <v>28878</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1083,34 +1086,34 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2">
-        <v>30110</v>
+        <v>101847</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B42" s="2">
-        <v>32236</v>
+        <v>7055</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2">
-        <v>6579</v>
+        <v>32124</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B44" s="2">
-        <v>106887</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1118,23 +1121,23 @@
         <v>10</v>
       </c>
       <c r="B45" s="2">
-        <v>27111</v>
+        <v>25095</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2">
-        <v>9332</v>
+        <v>34719</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2">
-        <v>36175</v>
+        <v>23446</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,47 +1145,47 @@
         <v>26</v>
       </c>
       <c r="B48" s="2">
-        <v>28152</v>
+        <v>26920</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>11565</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>3180</v>
+        <v>20672</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>2936</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2">
-        <v>5330</v>
+        <v>6838</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>7718</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1190,7 +1193,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>7170</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1198,31 +1201,29 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>8870</v>
+        <v>8790</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="4">
-        <v>378</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B56" s="5"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B57" s="4">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B58" s="4">
-        <v>432</v>
+        <v>378</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1230,7 +1231,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="4">
-        <v>936</v>
+        <v>774</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1238,15 +1239,15 @@
         <v>48</v>
       </c>
       <c r="B60" s="2">
-        <v>1098</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2">
-        <v>428216</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1262,7 +1263,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="2">
-        <v>4194</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1270,7 +1271,7 @@
         <v>95</v>
       </c>
       <c r="B64" s="2">
-        <v>8388</v>
+        <v>8298</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1278,71 +1279,71 @@
         <v>79</v>
       </c>
       <c r="B65" s="2">
-        <v>145482</v>
+        <v>138102</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2">
-        <v>3706</v>
+        <v>515102</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B67" s="2">
-        <v>123870</v>
+        <v>129901</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2">
-        <v>1530</v>
+        <v>35999</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B69" s="2">
-        <v>133213</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2">
-        <v>20978</v>
+        <v>65443</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B71" s="2">
-        <v>37601</v>
+        <v>16936</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B72" s="2">
-        <v>17944</v>
+        <v>20924</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>69619</v>
+        <v>1038114</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1350,87 +1351,87 @@
         <v>83</v>
       </c>
       <c r="B74" s="2">
-        <v>68337</v>
+        <v>68193</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2">
-        <v>1100034</v>
+        <v>59210</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B76" s="2">
-        <v>61082</v>
+        <v>31302</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2">
-        <v>76929</v>
+        <v>27384</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2">
-        <v>33876</v>
+        <v>75921</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2">
-        <v>28392</v>
+        <v>49429</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B80" s="2">
-        <v>50653</v>
+        <v>43506</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2">
-        <v>45018</v>
+        <v>153366</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="B82" s="2">
-        <v>38032</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B83" s="2">
-        <v>65985</v>
+        <v>44555</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B84" s="2">
-        <v>63360</v>
+        <v>64113</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1438,31 +1439,31 @@
         <v>63</v>
       </c>
       <c r="B85" s="2">
-        <v>64055</v>
+        <v>59591</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>26730</v>
+        <v>37312</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2">
-        <v>26782</v>
+        <v>60786</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2">
-        <v>48587</v>
+        <v>25468</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1470,63 +1471,63 @@
         <v>53</v>
       </c>
       <c r="B89" s="2">
-        <v>83214</v>
+        <v>82206</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B90" s="2">
-        <v>42366</v>
+        <v>66137</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B91" s="2">
-        <v>23004</v>
+        <v>41880</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B92" s="2">
-        <v>70655</v>
+        <v>22428</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2">
-        <v>52073</v>
+        <v>42083</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44891</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B95" s="2">
-        <v>4500</v>
+        <v>52073</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B96" s="2">
-        <v>5584</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1534,23 +1535,23 @@
         <v>62</v>
       </c>
       <c r="B97" s="2">
-        <v>5043</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B98" s="2">
-        <v>5585</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B99" s="2">
-        <v>10290</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1558,31 +1559,31 @@
         <v>52</v>
       </c>
       <c r="B100" s="2">
-        <v>23228</v>
+        <v>22796</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B101" s="2">
-        <v>5216</v>
+        <v>10290</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B102" s="2">
-        <v>8318</v>
+        <v>50</v>
+      </c>
+      <c r="B102" s="4">
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B103" s="2">
-        <v>1213</v>
+        <v>7202</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1595,18 +1596,18 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>40127</v>
+        <v>20390</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B106" s="2">
-        <v>20822</v>
+        <v>55121</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1614,7 +1615,7 @@
         <v>54</v>
       </c>
       <c r="B107" s="2">
-        <v>25406</v>
+        <v>24632</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1630,7 +1631,7 @@
         <v>66</v>
       </c>
       <c r="B109" s="2">
-        <v>5305</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1638,7 +1639,7 @@
         <v>75</v>
       </c>
       <c r="B110" s="2">
-        <v>127809</v>
+        <v>127377</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1646,7 +1647,7 @@
         <v>55</v>
       </c>
       <c r="B111" s="2">
-        <v>29913</v>
+        <v>29139</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -434,19 +434,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -755,7 +749,7 @@
   <dimension ref="A1:B111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -777,71 +771,71 @@
         <v>110</v>
       </c>
       <c r="B2" s="2">
-        <v>80864</v>
+        <v>80768</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>2831</v>
+        <v>16728</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
-        <v>30704</v>
+        <v>6876</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
-        <v>5886</v>
+        <v>17010</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>1078</v>
+        <v>17444</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>64928</v>
+        <v>9937</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2">
-        <v>25282</v>
+        <v>7154</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
-        <v>16272</v>
+        <v>7544</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
-        <v>40496</v>
+        <v>8638</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -849,255 +843,255 @@
         <v>38</v>
       </c>
       <c r="B11" s="2">
-        <v>10403</v>
+        <v>9661</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2">
-        <v>11160</v>
+        <v>24343</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2">
-        <v>12037</v>
+        <v>17934</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
-        <v>24360</v>
+        <v>12681</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>26726</v>
+        <v>18557</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2">
-        <v>9826</v>
+        <v>20338</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
-        <v>11088</v>
+        <v>15420</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
-        <v>23744</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
-        <v>9884</v>
+        <v>86922</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
-        <v>22127</v>
+        <v>17107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2">
-        <v>30912</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2">
-        <v>15411</v>
+        <v>17800</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B23" s="2">
-        <v>24277</v>
+        <v>12905</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2">
-        <v>8736</v>
+        <v>18796</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>7380</v>
+        <v>18534</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>20284</v>
+        <v>8484</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2">
-        <v>20733</v>
+        <v>12815</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2">
-        <v>20460</v>
+        <v>35658</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>21596</v>
+        <v>67958</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B30" s="2">
-        <v>21902</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2">
-        <v>18858</v>
+        <v>23698</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>15509</v>
+        <v>15167</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2">
-        <v>6228</v>
+        <v>28756</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2">
-        <v>37017</v>
+        <v>87587</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>42434</v>
+        <v>35323</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B36" s="2">
-        <v>15699</v>
+        <v>8890</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2">
-        <v>32606</v>
+        <v>30552</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B38" s="2">
-        <v>6019</v>
+        <v>13096</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
-        <v>28878</v>
+        <v>7414</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2">
-        <v>18331</v>
+        <v>71553</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2">
-        <v>101847</v>
+        <v>21670</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B42" s="2">
-        <v>7055</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1105,47 +1099,47 @@
         <v>22</v>
       </c>
       <c r="B43" s="2">
-        <v>32124</v>
+        <v>29380</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2">
-        <v>8324</v>
+        <v>7055</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2">
-        <v>25095</v>
+        <v>29455</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="B46" s="2">
-        <v>34719</v>
+        <v>22031</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B47" s="2">
-        <v>23446</v>
+        <v>24736</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2">
-        <v>26920</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1153,23 +1147,23 @@
         <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>2006</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2">
-        <v>20672</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2">
-        <v>4680</v>
+        <v>18492</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1177,7 +1171,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="2">
-        <v>6838</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1185,7 +1179,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>5200</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1193,7 +1187,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>7090</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1201,69 +1195,71 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>8790</v>
+        <v>8740</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1602</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" s="4">
-        <v>270</v>
+        <v>43</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1656</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="4">
-        <v>378</v>
+        <v>47</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1422</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B59" s="4">
-        <v>774</v>
+        <v>42</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1422</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2">
-        <v>1080</v>
+        <v>301168</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B61" s="2">
-        <v>2662</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="B62" s="2">
-        <v>1368</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2">
-        <v>4050</v>
+        <v>116214</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1271,71 +1267,71 @@
         <v>95</v>
       </c>
       <c r="B64" s="2">
-        <v>8298</v>
+        <v>8082</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2">
-        <v>138102</v>
+        <v>106501</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2">
-        <v>515102</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B67" s="2">
-        <v>129901</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2">
-        <v>35999</v>
+        <v>53927</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B69" s="2">
-        <v>1530</v>
+        <v>47096</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2">
-        <v>65443</v>
+        <v>15820</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2">
-        <v>16936</v>
+        <v>59319</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2">
-        <v>20924</v>
+        <v>34559</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1343,23 +1339,23 @@
         <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>1038114</v>
+        <v>1075835</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B74" s="2">
-        <v>68193</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2">
-        <v>59210</v>
+        <v>34794</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1367,111 +1363,111 @@
         <v>68</v>
       </c>
       <c r="B76" s="2">
-        <v>31302</v>
+        <v>26316</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2">
-        <v>27384</v>
+        <v>125250</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2">
-        <v>75921</v>
+        <v>24648</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B79" s="2">
-        <v>49429</v>
+        <v>21042</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B80" s="2">
-        <v>43506</v>
+        <v>55275</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="B81" s="2">
-        <v>153366</v>
+        <v>39587</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>24714</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>44555</v>
+        <v>69117</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B84" s="2">
-        <v>64113</v>
+        <v>65952</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2">
-        <v>59591</v>
+        <v>53388</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2">
-        <v>37312</v>
+        <v>22426</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2">
-        <v>60786</v>
+        <v>33676</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B88" s="2">
-        <v>25468</v>
+        <v>54207</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B89" s="2">
-        <v>82206</v>
+        <v>19584</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1479,31 +1475,31 @@
         <v>69</v>
       </c>
       <c r="B90" s="2">
-        <v>66137</v>
+        <v>59567</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
-        <v>41880</v>
+        <v>36665</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B92" s="2">
-        <v>22428</v>
+        <v>38010</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B93" s="2">
-        <v>42083</v>
+        <v>48599</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1511,15 +1507,15 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>4176</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B95" s="2">
-        <v>52073</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1527,15 +1523,15 @@
         <v>49</v>
       </c>
       <c r="B96" s="2">
-        <v>5009</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B97" s="2">
-        <v>4755</v>
+        <v>32978</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1543,23 +1539,23 @@
         <v>51</v>
       </c>
       <c r="B98" s="2">
-        <v>5440</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B99" s="2">
-        <v>4496</v>
+        <v>21734</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B100" s="2">
-        <v>22796</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1567,87 +1563,87 @@
         <v>73</v>
       </c>
       <c r="B101" s="2">
-        <v>10290</v>
+        <v>10182</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B102" s="4">
-        <v>637</v>
+        <v>111</v>
+      </c>
+      <c r="B102" s="2">
+        <v>7245</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>7202</v>
+        <v>16376</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="B104" s="2">
-        <v>7245</v>
+        <v>20654</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B105" s="2">
-        <v>20390</v>
+        <v>46931</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B106" s="2">
-        <v>55121</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B107" s="2">
-        <v>24632</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B108" s="2">
-        <v>8980</v>
+        <v>12851</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B109" s="2">
-        <v>5269</v>
+        <v>114651</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B110" s="2">
-        <v>127377</v>
+        <v>24836</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B111" s="2">
-        <v>29139</v>
+        <v>4435</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Количество</t>
   </si>
@@ -301,12 +301,6 @@
   </si>
   <si>
     <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Опалиховский" (БАД) 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Тибетский" (БАД) 20х2,0  г</t>
   </si>
   <si>
     <t>Фп Хвощ полевой трава 20х1,5г</t>
@@ -746,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -768,7 +762,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2">
         <v>80768</v>
@@ -776,362 +770,362 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>16728</v>
+        <v>11239</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>6876</v>
+        <v>13348</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2">
-        <v>17010</v>
+        <v>16688</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2">
-        <v>17444</v>
+        <v>23405</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>9937</v>
+        <v>17689</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
-        <v>7154</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2">
-        <v>7544</v>
+        <v>19344</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
-        <v>8638</v>
+        <v>18016</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2">
-        <v>9661</v>
+        <v>12614</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>24343</v>
+        <v>16962</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
-        <v>17934</v>
+        <v>16141</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>12681</v>
+        <v>16344</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2">
-        <v>18557</v>
+        <v>11477</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
-        <v>20338</v>
+        <v>30296</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>15420</v>
+        <v>11261</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>5980</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2">
-        <v>86922</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
-        <v>17107</v>
+        <v>64934</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="2">
-        <v>13440</v>
+        <v>34636</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>17800</v>
+        <v>13720</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2">
-        <v>12905</v>
+        <v>7819</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
-        <v>18796</v>
+        <v>22522</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2">
-        <v>18534</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>8484</v>
+        <v>45932</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
-        <v>12815</v>
+        <v>32831</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2">
-        <v>35658</v>
+        <v>81175</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
-        <v>67958</v>
+        <v>27748</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>5626</v>
+        <v>5333</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2">
-        <v>23698</v>
+        <v>29572</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2">
-        <v>15167</v>
+        <v>20032</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2">
-        <v>28756</v>
+        <v>120284</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B34" s="2">
-        <v>87587</v>
+        <v>12984</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2">
-        <v>35323</v>
+        <v>27028</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B36" s="2">
-        <v>8890</v>
+        <v>67885</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2">
-        <v>30552</v>
+        <v>37842</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
-        <v>13096</v>
+        <v>21055</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>7414</v>
+        <v>18079</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2">
-        <v>71553</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2">
-        <v>21670</v>
+        <v>18422</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2">
-        <v>5921</v>
+        <v>28951</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2">
-        <v>29380</v>
+        <v>21681</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B44" s="2">
-        <v>7055</v>
+        <v>23483</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B45" s="2">
-        <v>29455</v>
+        <v>24046</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B46" s="2">
-        <v>22031</v>
+        <v>23266</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2">
-        <v>24736</v>
+        <v>25872</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1133,7 @@
         <v>28</v>
       </c>
       <c r="B48" s="2">
-        <v>5824</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,23 +1141,23 @@
         <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>2676</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>4060</v>
+        <v>16422</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>18492</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,7 +1165,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="2">
-        <v>5918</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1173,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>5030</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1181,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>6900</v>
+        <v>6825</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,12 +1189,12 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>8740</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B56" s="2">
         <v>1602</v>
@@ -1208,10 +1202,10 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B57" s="2">
-        <v>1656</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1235,7 +1229,7 @@
         <v>80</v>
       </c>
       <c r="B60" s="2">
-        <v>301168</v>
+        <v>299813</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1243,223 +1237,223 @@
         <v>48</v>
       </c>
       <c r="B61" s="2">
-        <v>2646</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2">
-        <v>2464</v>
+        <v>108757</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2">
-        <v>116214</v>
+        <v>50039</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B64" s="2">
-        <v>8082</v>
+        <v>43136</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2">
-        <v>106501</v>
+        <v>14272</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2">
-        <v>3996</v>
+        <v>53469</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2">
-        <v>1314</v>
+        <v>30384</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2">
-        <v>53927</v>
+        <v>32363</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2">
-        <v>47096</v>
+        <v>111678</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B70" s="2">
-        <v>15820</v>
+        <v>968321</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2">
-        <v>59319</v>
+        <v>25506</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="B72" s="2">
-        <v>34559</v>
+        <v>55962</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B73" s="2">
-        <v>1075835</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2">
-        <v>1512</v>
+        <v>23478</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B75" s="2">
-        <v>34794</v>
+        <v>50253</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2">
-        <v>26316</v>
+        <v>47880</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="B77" s="2">
-        <v>125250</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B78" s="2">
-        <v>24648</v>
+        <v>20610</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2">
-        <v>21042</v>
+        <v>20698</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B80" s="2">
-        <v>55275</v>
+        <v>65517</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2">
-        <v>39587</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B82" s="2">
-        <v>45397</v>
+        <v>52371</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B83" s="2">
-        <v>69117</v>
+        <v>38957</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B84" s="2">
-        <v>65952</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2">
-        <v>53388</v>
+        <v>32524</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B86" s="2">
-        <v>22426</v>
+        <v>57155</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>33676</v>
+        <v>34068</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B88" s="2">
-        <v>54207</v>
+        <v>36138</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,39 +1461,39 @@
         <v>81</v>
       </c>
       <c r="B89" s="2">
-        <v>19584</v>
+        <v>19080</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B90" s="2">
-        <v>59567</v>
+        <v>44405</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="B91" s="2">
-        <v>36665</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B92" s="2">
-        <v>38010</v>
+        <v>191551</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B93" s="2">
-        <v>48599</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1507,143 +1501,127 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>4050</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B95" s="2">
-        <v>4377</v>
+        <v>31880</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B96" s="2">
-        <v>4829</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B97" s="2">
-        <v>32978</v>
+        <v>21464</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B98" s="2">
-        <v>5386</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B99" s="2">
-        <v>21734</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2">
-        <v>4478</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B101" s="2">
-        <v>10182</v>
+        <v>42269</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="B102" s="2">
-        <v>7245</v>
+        <v>19358</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="B103" s="2">
-        <v>16376</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B104" s="2">
-        <v>20654</v>
+        <v>7306</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B105" s="2">
-        <v>46931</v>
+        <v>12383</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2">
-        <v>4369</v>
+        <v>24026</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B107" s="2">
-        <v>7666</v>
+        <v>111046</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B108" s="2">
-        <v>12851</v>
+        <v>22874</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B109" s="2">
-        <v>114651</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B110" s="2">
-        <v>24836</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B111" s="2">
-        <v>4435</v>
+        <v>3949</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -428,13 +428,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -743,7 +746,7 @@
   <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -765,71 +768,71 @@
         <v>108</v>
       </c>
       <c r="B2" s="2">
-        <v>80768</v>
+        <v>80512</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2">
-        <v>11239</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>13348</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>16688</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2">
-        <v>23405</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2">
-        <v>17689</v>
+        <v>11630</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2">
-        <v>4762</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
-        <v>19344</v>
+        <v>10296</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
-        <v>18016</v>
+        <v>17808</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -837,263 +840,263 @@
         <v>103</v>
       </c>
       <c r="B11" s="2">
-        <v>12614</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>16962</v>
+        <v>6935</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>16141</v>
+        <v>8456</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>16344</v>
+        <v>16282</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
-        <v>11477</v>
+        <v>40812</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="B16" s="2">
-        <v>30296</v>
+        <v>23800</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2">
-        <v>11261</v>
+        <v>21197</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
-        <v>7840</v>
+        <v>72894</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2">
-        <v>5264</v>
+        <v>49535</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2">
-        <v>64934</v>
+        <v>12598</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>34636</v>
+        <v>17242</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
-        <v>13720</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>7819</v>
+        <v>17762</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2">
-        <v>22522</v>
+        <v>13788</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2">
-        <v>6294</v>
+        <v>24584</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2">
-        <v>45932</v>
+        <v>47613</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
-        <v>32831</v>
+        <v>22026</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2">
-        <v>81175</v>
+        <v>15145</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2">
-        <v>27748</v>
+        <v>12787</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2">
-        <v>5333</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2">
-        <v>29572</v>
+        <v>37896</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B32" s="2">
-        <v>20032</v>
+        <v>16080</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B33" s="2">
-        <v>120284</v>
+        <v>13886</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2">
-        <v>12984</v>
+        <v>17975</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>27028</v>
+        <v>24751</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>67885</v>
+        <v>26426</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B37" s="2">
-        <v>37842</v>
+        <v>29002</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>21055</v>
+        <v>18141</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2">
-        <v>18079</v>
+        <v>23085</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2">
-        <v>7041</v>
+        <v>9954</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2">
-        <v>18422</v>
+        <v>36313</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B42" s="2">
-        <v>28951</v>
+        <v>31465</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B43" s="2">
-        <v>21681</v>
+        <v>25108</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1101,15 +1104,15 @@
         <v>36</v>
       </c>
       <c r="B44" s="2">
-        <v>23483</v>
+        <v>19983</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B45" s="2">
-        <v>24046</v>
+        <v>17355</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1117,7 +1120,7 @@
         <v>26</v>
       </c>
       <c r="B46" s="2">
-        <v>23266</v>
+        <v>18688</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1125,7 +1128,7 @@
         <v>102</v>
       </c>
       <c r="B47" s="2">
-        <v>25872</v>
+        <v>23282</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1133,7 +1136,7 @@
         <v>28</v>
       </c>
       <c r="B48" s="2">
-        <v>5432</v>
+        <v>5362</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1141,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>2115</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1149,7 +1152,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>16422</v>
+        <v>10422</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1157,7 +1160,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2">
-        <v>3745</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1165,7 +1168,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="2">
-        <v>5400</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1173,7 +1176,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>4835</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1181,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>6825</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1189,367 +1192,367 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>8700</v>
+        <v>8680</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B56" s="2">
-        <v>1602</v>
+        <v>42</v>
+      </c>
+      <c r="B56" s="4">
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2">
-        <v>1602</v>
+        <v>168296</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B58" s="2">
-        <v>1422</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B59" s="2">
-        <v>1422</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B60" s="2">
-        <v>299813</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2">
-        <v>2538</v>
+        <v>7342</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2">
-        <v>108757</v>
+        <v>27909</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B63" s="2">
-        <v>50039</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2">
-        <v>43136</v>
+        <v>33137</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2">
-        <v>14272</v>
+        <v>27638</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2">
-        <v>53469</v>
+        <v>21546</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2">
-        <v>30384</v>
+        <v>30348</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="B68" s="2">
-        <v>32363</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="B69" s="2">
-        <v>111678</v>
+        <v>36864</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
-        <v>968321</v>
+        <v>35277</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2">
-        <v>25506</v>
+        <v>25019</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B72" s="2">
-        <v>55962</v>
+        <v>14202</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B73" s="2">
-        <v>1512</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2">
-        <v>23478</v>
+        <v>727337</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2">
-        <v>50253</v>
+        <v>90780</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2">
-        <v>47880</v>
+        <v>14596</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2">
-        <v>2736</v>
+        <v>17934</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2">
-        <v>20610</v>
+        <v>12150</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>20698</v>
+        <v>28691</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B80" s="2">
-        <v>65517</v>
+        <v>20700</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2">
-        <v>44695</v>
+        <v>48903</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B82" s="2">
-        <v>52371</v>
+        <v>28949</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
-        <v>38957</v>
+        <v>127543</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>5594</v>
+        <v>23454</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B85" s="2">
-        <v>32524</v>
+        <v>24330</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B86" s="2">
-        <v>57155</v>
+        <v>145435</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>34068</v>
+        <v>33391</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2">
-        <v>36138</v>
+        <v>24208</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B89" s="2">
-        <v>19080</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B90" s="2">
-        <v>44405</v>
+        <v>42161</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B91" s="2">
-        <v>4235</v>
+        <v>40761</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2">
-        <v>191551</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B93" s="2">
-        <v>4143</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B94" s="2">
-        <v>3870</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B95" s="2">
-        <v>31880</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B96" s="2">
-        <v>5022</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B97" s="2">
-        <v>21464</v>
+        <v>26552</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B98" s="2">
-        <v>9786</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B99" s="2">
-        <v>4478</v>
+        <v>16442</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B100" s="2">
-        <v>7245</v>
+        <v>11852</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1557,23 +1560,23 @@
         <v>70</v>
       </c>
       <c r="B101" s="2">
-        <v>42269</v>
+        <v>25313</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B102" s="2">
-        <v>19358</v>
+        <v>7289</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>4063</v>
+        <v>15728</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1581,23 +1584,23 @@
         <v>64</v>
       </c>
       <c r="B104" s="2">
-        <v>7306</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2">
-        <v>12383</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B106" s="2">
-        <v>24026</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1605,7 +1608,7 @@
         <v>75</v>
       </c>
       <c r="B107" s="2">
-        <v>111046</v>
+        <v>98172</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1613,15 +1616,15 @@
         <v>55</v>
       </c>
       <c r="B108" s="2">
-        <v>22874</v>
+        <v>19868</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B109" s="2">
-        <v>3949</v>
+        <v>9121</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -768,367 +768,367 @@
         <v>108</v>
       </c>
       <c r="B2" s="2">
-        <v>80512</v>
+        <v>78880</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>2024</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
-        <v>2128</v>
+        <v>24952</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2">
-        <v>3577</v>
+        <v>17416</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2">
-        <v>2043</v>
+        <v>17458</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>11630</v>
+        <v>17150</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2">
-        <v>4088</v>
+        <v>13271</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
-        <v>10296</v>
+        <v>14378</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2">
-        <v>17808</v>
+        <v>79926</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
-        <v>8274</v>
+        <v>10456</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="B12" s="2">
-        <v>6935</v>
+        <v>12639</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>8456</v>
+        <v>7930</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2">
-        <v>16282</v>
+        <v>19202</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>40812</v>
+        <v>13963</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>23800</v>
+        <v>68819</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="B17" s="2">
-        <v>21197</v>
+        <v>24959</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>72894</v>
+        <v>10652</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>49535</v>
+        <v>13902</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2">
-        <v>12598</v>
+        <v>20579</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
-        <v>17242</v>
+        <v>72718</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2">
-        <v>4283</v>
+        <v>42327</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2">
-        <v>17762</v>
+        <v>21766</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>13788</v>
+        <v>15887</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>24584</v>
+        <v>28754</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B26" s="2">
-        <v>47613</v>
+        <v>31840</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2">
-        <v>22026</v>
+        <v>16831</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2">
-        <v>15145</v>
+        <v>27461</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2">
-        <v>12787</v>
+        <v>18761</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>9582</v>
+        <v>30263</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B31" s="2">
-        <v>37896</v>
+        <v>22412</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B32" s="2">
-        <v>16080</v>
+        <v>15731</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B33" s="2">
-        <v>13886</v>
+        <v>22638</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2">
-        <v>17975</v>
+        <v>9133</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2">
-        <v>24751</v>
+        <v>70600</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2">
-        <v>26426</v>
+        <v>9710</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>29002</v>
+        <v>18709</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2">
-        <v>18141</v>
+        <v>32012</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>23085</v>
+        <v>23198</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B40" s="2">
-        <v>9954</v>
+        <v>17624</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2">
-        <v>36313</v>
+        <v>24878</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B42" s="2">
-        <v>31465</v>
+        <v>14867</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B43" s="2">
-        <v>25108</v>
+        <v>10415</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B44" s="2">
-        <v>19983</v>
+        <v>10276</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2">
-        <v>17355</v>
+        <v>21420</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2">
-        <v>18688</v>
+        <v>18928</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B47" s="2">
-        <v>23282</v>
+        <v>14247</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,39 +1136,39 @@
         <v>28</v>
       </c>
       <c r="B48" s="2">
-        <v>5362</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2">
-        <v>1060</v>
+        <v>9602</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2">
-        <v>10422</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>2430</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>4600</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>4590</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>6650</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,319 +1192,319 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>8680</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="4">
-        <v>612</v>
+        <v>95</v>
+      </c>
+      <c r="B56" s="2">
+        <v>11484</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B57" s="2">
-        <v>168296</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="2">
-        <v>1566</v>
+        <v>47</v>
+      </c>
+      <c r="B58" s="4">
+        <v>882</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2">
-        <v>1566</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60" s="2">
-        <v>1332</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B61" s="2">
-        <v>7342</v>
+        <v>15246</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B62" s="2">
-        <v>27909</v>
+        <v>20682</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2">
-        <v>2250</v>
+        <v>41296</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2">
-        <v>33137</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="B65" s="2">
-        <v>27638</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2">
-        <v>21546</v>
+        <v>25274</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2">
-        <v>30348</v>
+        <v>21194</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B68" s="2">
-        <v>2183</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B69" s="2">
-        <v>36864</v>
+        <v>13716</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>35277</v>
+        <v>14130</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B71" s="2">
-        <v>25019</v>
+        <v>10926</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2">
-        <v>14202</v>
+        <v>11626</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B73" s="2">
-        <v>2433</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B74" s="2">
-        <v>727337</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2">
-        <v>90780</v>
+        <v>21815</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B76" s="2">
-        <v>14596</v>
+        <v>95845</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>17934</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>12150</v>
+        <v>697302</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>28691</v>
+        <v>117463</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2">
-        <v>20700</v>
+        <v>15273</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2">
-        <v>48903</v>
+        <v>25322</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B82" s="2">
-        <v>28949</v>
+        <v>32436</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2">
-        <v>127543</v>
+        <v>501390</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B84" s="2">
-        <v>23454</v>
+        <v>30825</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>24330</v>
+        <v>54801</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>145435</v>
+        <v>20679</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>33391</v>
+        <v>22188</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B88" s="2">
-        <v>24208</v>
+        <v>24485</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B89" s="2">
-        <v>4370</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
-        <v>42161</v>
+        <v>46851</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2">
-        <v>40761</v>
+        <v>32059</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B92" s="2">
-        <v>2808</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>3006</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B94" s="2">
-        <v>2556</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1512,23 +1512,23 @@
         <v>44</v>
       </c>
       <c r="B95" s="2">
-        <v>1512</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B96" s="2">
-        <v>7230</v>
+        <v>20882</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B97" s="2">
-        <v>26552</v>
+        <v>7014</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1536,7 @@
         <v>71</v>
       </c>
       <c r="B98" s="2">
-        <v>3578</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,15 +1544,15 @@
         <v>52</v>
       </c>
       <c r="B99" s="2">
-        <v>16442</v>
+        <v>15446</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B100" s="2">
-        <v>11852</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1560,39 +1560,39 @@
         <v>70</v>
       </c>
       <c r="B101" s="2">
-        <v>25313</v>
+        <v>28081</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B102" s="2">
-        <v>7289</v>
+        <v>13394</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2">
-        <v>15728</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B104" s="2">
-        <v>5164</v>
+        <v>14087</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B105" s="2">
-        <v>7245</v>
+        <v>13014</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1600,23 +1600,23 @@
         <v>50</v>
       </c>
       <c r="B106" s="2">
-        <v>2581</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B107" s="2">
-        <v>98172</v>
+        <v>20889</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B108" s="2">
-        <v>19868</v>
+        <v>78554</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
         <v>66</v>
       </c>
       <c r="B109" s="2">
-        <v>9121</v>
+        <v>8226</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -768,191 +768,191 @@
         <v>108</v>
       </c>
       <c r="B2" s="2">
-        <v>78880</v>
+        <v>78016</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>9973</v>
+        <v>23663</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
-        <v>24952</v>
+        <v>20923</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>17416</v>
+        <v>11845</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>17458</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>17150</v>
+        <v>19078</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2">
-        <v>13271</v>
+        <v>101841</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>14378</v>
+        <v>25987</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>79926</v>
+        <v>31668</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>10456</v>
+        <v>24638</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2">
-        <v>12639</v>
+        <v>6921</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>7930</v>
+        <v>14703</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2">
-        <v>19202</v>
+        <v>21503</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>13963</v>
+        <v>7246</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>68819</v>
+        <v>16847</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>24959</v>
+        <v>14809</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>10652</v>
+        <v>23709</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>13902</v>
+        <v>25195</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2">
-        <v>20579</v>
+        <v>18760</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2">
-        <v>72718</v>
+        <v>15360</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2">
-        <v>42327</v>
+        <v>61514</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B23" s="2">
-        <v>21766</v>
+        <v>95489</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
-        <v>15887</v>
+        <v>88951</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>28754</v>
+        <v>20508</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -960,159 +960,159 @@
         <v>101</v>
       </c>
       <c r="B26" s="2">
-        <v>31840</v>
+        <v>30930</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B27" s="2">
-        <v>16831</v>
+        <v>21168</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2">
-        <v>27461</v>
+        <v>30276</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2">
-        <v>18761</v>
+        <v>15381</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2">
-        <v>30263</v>
+        <v>55601</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2">
-        <v>22412</v>
+        <v>29114</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2">
-        <v>15731</v>
+        <v>15062</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B33" s="2">
-        <v>22638</v>
+        <v>14507</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2">
-        <v>9133</v>
+        <v>30394</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2">
-        <v>70600</v>
+        <v>9155</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2">
-        <v>9710</v>
+        <v>22324</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B37" s="2">
-        <v>18709</v>
+        <v>25182</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
-        <v>32012</v>
+        <v>26017</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2">
-        <v>23198</v>
+        <v>18466</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B40" s="2">
-        <v>17624</v>
+        <v>41129</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B41" s="2">
-        <v>24878</v>
+        <v>38241</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B42" s="2">
-        <v>14867</v>
+        <v>24159</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B43" s="2">
-        <v>10415</v>
+        <v>14391</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2">
-        <v>10276</v>
+        <v>52626</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B45" s="2">
-        <v>21420</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1120,7 +1120,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="2">
-        <v>18928</v>
+        <v>18102</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="B47" s="2">
-        <v>14247</v>
+        <v>13841</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,39 +1136,39 @@
         <v>28</v>
       </c>
       <c r="B48" s="2">
-        <v>5124</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>9602</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2">
-        <v>3740</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2">
-        <v>3214</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2">
-        <v>4420</v>
+        <v>18448</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1176,7 +1176,7 @@
         <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>4210</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>5490</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,343 +1192,343 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>7510</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="2">
-        <v>11484</v>
+        <v>48</v>
+      </c>
+      <c r="B56" s="4">
+        <v>972</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2">
-        <v>1260</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="4">
-        <v>882</v>
+        <v>45</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1260</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2">
-        <v>10908</v>
+        <v>61735</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2">
-        <v>1494</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2">
-        <v>15246</v>
+        <v>9268</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B62" s="2">
-        <v>20682</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>41296</v>
+        <v>25011</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2">
-        <v>6174</v>
+        <v>20930</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2">
-        <v>1098</v>
+        <v>13833</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2">
-        <v>25274</v>
+        <v>19889</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B67" s="2">
-        <v>21194</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B68" s="2">
-        <v>1980</v>
+        <v>18959</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2">
-        <v>13716</v>
+        <v>109921</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B70" s="2">
-        <v>14130</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B71" s="2">
-        <v>10926</v>
+        <v>19376</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B72" s="2">
-        <v>11626</v>
+        <v>46949</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2">
-        <v>2039</v>
+        <v>29466</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2">
-        <v>2080</v>
+        <v>23166</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B75" s="2">
-        <v>21815</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2">
-        <v>95845</v>
+        <v>17547</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2">
-        <v>10080</v>
+        <v>79744</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B78" s="2">
-        <v>697302</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B79" s="2">
-        <v>117463</v>
+        <v>16454</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B80" s="2">
-        <v>15273</v>
+        <v>46277</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B81" s="2">
-        <v>25322</v>
+        <v>28585</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B82" s="2">
-        <v>32436</v>
+        <v>55314</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2">
-        <v>501390</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B84" s="2">
-        <v>30825</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="B85" s="2">
-        <v>54801</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B86" s="2">
-        <v>20679</v>
+        <v>589097</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B87" s="2">
-        <v>22188</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B88" s="2">
-        <v>24485</v>
+        <v>23382</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>2430</v>
+        <v>44457</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B90" s="2">
-        <v>46851</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B91" s="2">
-        <v>32059</v>
+        <v>43267</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B92" s="2">
-        <v>4156</v>
+        <v>876834</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B93" s="2">
-        <v>2646</v>
+        <v>66458</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="B94" s="2">
-        <v>2790</v>
+        <v>15120</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2">
-        <v>1404</v>
+        <v>28998</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B96" s="2">
-        <v>20882</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B97" s="2">
-        <v>7014</v>
+        <v>28998</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1536,7 @@
         <v>71</v>
       </c>
       <c r="B98" s="2">
-        <v>3272</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,79 +1544,79 @@
         <v>52</v>
       </c>
       <c r="B99" s="2">
-        <v>15446</v>
+        <v>15320</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B100" s="2">
-        <v>3292</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2">
-        <v>28081</v>
+        <v>20306</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B102" s="2">
-        <v>13394</v>
+        <v>44492</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B103" s="2">
-        <v>7245</v>
+        <v>18477</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B104" s="2">
-        <v>14087</v>
+        <v>12402</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B105" s="2">
-        <v>13014</v>
+        <v>75008</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B106" s="2">
-        <v>2509</v>
+        <v>17975</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>20889</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B108" s="2">
-        <v>78554</v>
+        <v>10564</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1624,7 +1624,7 @@
         <v>66</v>
       </c>
       <c r="B109" s="2">
-        <v>8226</v>
+        <v>7812</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -768,7 +768,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="2">
-        <v>78016</v>
+        <v>76160</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -776,359 +776,359 @@
         <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>23663</v>
+        <v>18161</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
-        <v>20923</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>11845</v>
+        <v>10873</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2">
-        <v>8706</v>
+        <v>15190</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>19078</v>
+        <v>18809</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
-        <v>101841</v>
+        <v>24573</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
-        <v>25987</v>
+        <v>41385</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>31668</v>
+        <v>11785</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>24638</v>
+        <v>70891</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>6921</v>
+        <v>14742</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2">
-        <v>14703</v>
+        <v>12154</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2">
-        <v>21503</v>
+        <v>30940</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2">
-        <v>7246</v>
+        <v>20370</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2">
-        <v>16847</v>
+        <v>112579</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
-        <v>14809</v>
+        <v>6705</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B18" s="2">
-        <v>23709</v>
+        <v>15918</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>25195</v>
+        <v>10937</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>18760</v>
+        <v>17951</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>15360</v>
+        <v>14138</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2">
-        <v>61514</v>
+        <v>13468</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2">
-        <v>95489</v>
+        <v>24462</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>88951</v>
+        <v>13130</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2">
-        <v>20508</v>
+        <v>75959</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
-        <v>30930</v>
+        <v>34211</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>21168</v>
+        <v>46151</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="2">
-        <v>30276</v>
+        <v>28193</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2">
-        <v>15381</v>
+        <v>25277</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2">
-        <v>55601</v>
+        <v>24080</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>29114</v>
+        <v>27321</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2">
-        <v>15062</v>
+        <v>75668</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="B33" s="2">
-        <v>14507</v>
+        <v>19680</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>30394</v>
+        <v>17901</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>9155</v>
+        <v>11049</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2">
-        <v>22324</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2">
-        <v>25182</v>
+        <v>40444</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B38" s="2">
-        <v>26017</v>
+        <v>33020</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
-        <v>18466</v>
+        <v>23651</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="B40" s="2">
-        <v>41129</v>
+        <v>11213</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2">
-        <v>38241</v>
+        <v>28333</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B42" s="2">
-        <v>24159</v>
+        <v>20376</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2">
-        <v>14391</v>
+        <v>25494</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B44" s="2">
-        <v>52626</v>
+        <v>32770</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2">
-        <v>9576</v>
+        <v>38036</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B46" s="2">
-        <v>18102</v>
+        <v>9753</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2">
-        <v>13841</v>
+        <v>14655</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1136,7 @@
         <v>28</v>
       </c>
       <c r="B48" s="2">
-        <v>5026</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
         <v>58</v>
       </c>
       <c r="B49" s="2">
-        <v>2304</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="2">
-        <v>3010</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1160,23 +1160,23 @@
         <v>59</v>
       </c>
       <c r="B51" s="2">
-        <v>5007</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>18448</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2">
-        <v>3550</v>
+        <v>14468</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>4870</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,383 +1192,383 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>7170</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="4">
-        <v>972</v>
+        <v>80</v>
+      </c>
+      <c r="B56" s="2">
+        <v>267097</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2">
-        <v>14238</v>
+        <v>7947</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B58" s="2">
-        <v>1260</v>
+        <v>12168</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2">
-        <v>61735</v>
+        <v>7236</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B60" s="2">
-        <v>6768</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B61" s="2">
-        <v>9268</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2">
-        <v>1643</v>
+        <v>7218</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B63" s="2">
-        <v>25011</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B64" s="2">
-        <v>20930</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2">
-        <v>13833</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B66" s="2">
-        <v>19889</v>
+        <v>26784</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2">
-        <v>1866</v>
+        <v>23433</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B68" s="2">
-        <v>18959</v>
+        <v>15859</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2">
-        <v>109921</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2">
-        <v>2080</v>
+        <v>13634</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2">
-        <v>19376</v>
+        <v>34997</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2">
-        <v>46949</v>
+        <v>21951</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2">
-        <v>29466</v>
+        <v>36269</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="2">
-        <v>23166</v>
+        <v>44</v>
+      </c>
+      <c r="B74" s="4">
+        <v>846</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B75" s="2">
-        <v>2322</v>
+        <v>33457</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2">
-        <v>17547</v>
+        <v>24389</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="B77" s="2">
-        <v>79744</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B78" s="2">
-        <v>3012</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B79" s="2">
-        <v>16454</v>
+        <v>121081</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B80" s="2">
-        <v>46277</v>
+        <v>31919</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B81" s="2">
-        <v>28585</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2">
-        <v>55314</v>
+        <v>53012</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2">
-        <v>2340</v>
+        <v>16486</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B84" s="2">
-        <v>1044</v>
+        <v>24971</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>2430</v>
+        <v>19964</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B86" s="2">
-        <v>589097</v>
+        <v>38988</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B87" s="2">
-        <v>3500</v>
+        <v>154152</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B88" s="2">
-        <v>23382</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B89" s="2">
-        <v>44457</v>
+        <v>69714</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B90" s="2">
-        <v>3814</v>
+        <v>24920</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B91" s="2">
-        <v>43267</v>
+        <v>20790</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B92" s="2">
-        <v>876834</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2">
-        <v>66458</v>
+        <v>123264</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2">
-        <v>15120</v>
+        <v>43680</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B95" s="2">
-        <v>28998</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B96" s="2">
-        <v>6528</v>
+        <v>1324854</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B97" s="2">
-        <v>28998</v>
+        <v>8398</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2">
-        <v>3128</v>
+        <v>10206</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B99" s="2">
-        <v>15320</v>
+        <v>13396</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B100" s="2">
-        <v>1555</v>
+        <v>7895</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B101" s="2">
-        <v>20306</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B102" s="2">
-        <v>44492</v>
+        <v>50258</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1576,55 +1576,55 @@
         <v>54</v>
       </c>
       <c r="B103" s="2">
-        <v>18477</v>
+        <v>12537</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2">
-        <v>12402</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>75008</v>
+        <v>27324</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B106" s="2">
-        <v>17975</v>
+        <v>56516</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B107" s="2">
-        <v>7245</v>
+        <v>9124</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B108" s="2">
-        <v>10564</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B109" s="2">
-        <v>7812</v>
+        <v>4273</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -428,16 +428,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -746,7 +743,7 @@
   <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -768,7 +765,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="2">
-        <v>76160</v>
+        <v>74464</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -776,383 +773,383 @@
         <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>18161</v>
+        <v>12449</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
-        <v>4715</v>
+        <v>21253</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>10873</v>
+        <v>7185</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2">
-        <v>15190</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2">
-        <v>18809</v>
+        <v>15768</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2">
-        <v>24573</v>
+        <v>16920</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>41385</v>
+        <v>22661</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>11785</v>
+        <v>30569</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
-        <v>70891</v>
+        <v>11532</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2">
-        <v>14742</v>
+        <v>56011</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>12154</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2">
-        <v>30940</v>
+        <v>13353</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>20370</v>
+        <v>14317</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>112579</v>
+        <v>9381</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>6705</v>
+        <v>10653</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
-        <v>15918</v>
+        <v>18228</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2">
-        <v>10937</v>
+        <v>19873</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
-        <v>17951</v>
+        <v>32558</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
-        <v>14138</v>
+        <v>29818</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>13468</v>
+        <v>18135</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2">
-        <v>24462</v>
+        <v>8007</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2">
-        <v>13130</v>
+        <v>18032</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2">
-        <v>75959</v>
+        <v>15588</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>34211</v>
+        <v>9831</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>46151</v>
+        <v>122652</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="B28" s="2">
-        <v>28193</v>
+        <v>21030</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2">
-        <v>25277</v>
+        <v>78640</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2">
-        <v>24080</v>
+        <v>63029</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2">
-        <v>27321</v>
+        <v>26862</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2">
-        <v>75668</v>
+        <v>30084</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2">
-        <v>19680</v>
+        <v>22859</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="B34" s="2">
-        <v>17901</v>
+        <v>27296</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>11049</v>
+        <v>19611</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B36" s="2">
-        <v>12110</v>
+        <v>23898</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2">
-        <v>40444</v>
+        <v>26265</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2">
-        <v>33020</v>
+        <v>28385</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B39" s="2">
-        <v>23651</v>
+        <v>8670</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2">
-        <v>11213</v>
+        <v>46819</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B41" s="2">
-        <v>28333</v>
+        <v>24340</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B42" s="2">
-        <v>20376</v>
+        <v>8203</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B43" s="2">
-        <v>25494</v>
+        <v>37808</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B44" s="2">
-        <v>32770</v>
+        <v>10861</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2">
-        <v>38036</v>
+        <v>21779</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B46" s="2">
-        <v>9753</v>
+        <v>22038</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B47" s="2">
-        <v>14655</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B48" s="2">
-        <v>4032</v>
+        <v>31733</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
-        <v>1240</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>1340</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1160,23 +1157,23 @@
         <v>59</v>
       </c>
       <c r="B51" s="2">
-        <v>3150</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2">
-        <v>2950</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2">
-        <v>14468</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,7 +1181,7 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>4300</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1192,327 +1189,327 @@
         <v>41</v>
       </c>
       <c r="B55" s="2">
-        <v>6940</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2">
-        <v>267097</v>
+        <v>30260</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2">
-        <v>7947</v>
+        <v>23130</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2">
-        <v>12168</v>
+        <v>16259</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2">
-        <v>7236</v>
+        <v>34326</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B60" s="2">
-        <v>2106</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B61" s="2">
-        <v>1332</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B62" s="2">
-        <v>7218</v>
+        <v>89728</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B63" s="2">
-        <v>1872</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2">
-        <v>1458</v>
+        <v>100602</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B65" s="2">
-        <v>12600</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B66" s="2">
-        <v>26784</v>
+        <v>14780</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2">
-        <v>23433</v>
+        <v>16730</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
-        <v>15859</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2">
-        <v>2266</v>
+        <v>580081</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B70" s="2">
-        <v>13634</v>
+        <v>41778</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B71" s="2">
-        <v>34997</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B72" s="2">
-        <v>21951</v>
+        <v>37527</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2">
-        <v>36269</v>
+        <v>27251</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" s="4">
-        <v>846</v>
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>3432</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B75" s="2">
-        <v>33457</v>
+        <v>14634</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2">
-        <v>24389</v>
+        <v>20619</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2">
-        <v>2844</v>
+        <v>18205</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2">
-        <v>3996</v>
+        <v>92142</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B79" s="2">
-        <v>121081</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B80" s="2">
-        <v>31919</v>
+        <v>16614</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B81" s="2">
-        <v>3268</v>
+        <v>8498</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2">
-        <v>53012</v>
+        <v>54104</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B83" s="2">
-        <v>16486</v>
+        <v>57042</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B84" s="2">
-        <v>24971</v>
+        <v>56641</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2">
-        <v>19964</v>
+        <v>15768</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2">
-        <v>38988</v>
+        <v>30384</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" s="2">
-        <v>154152</v>
+        <v>35919</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B88" s="2">
-        <v>10082</v>
+        <v>27126</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B89" s="2">
-        <v>69714</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B90" s="2">
-        <v>24920</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2">
-        <v>20790</v>
+        <v>36642</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>5070</v>
+        <v>44243</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B93" s="2">
-        <v>123264</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="B94" s="2">
-        <v>43680</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B95" s="2">
-        <v>2534</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1520,7 +1517,7 @@
         <v>77</v>
       </c>
       <c r="B96" s="2">
-        <v>1324854</v>
+        <v>1436508</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1528,7 +1525,7 @@
         <v>62</v>
       </c>
       <c r="B97" s="2">
-        <v>8398</v>
+        <v>8182</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,7 +1533,7 @@
         <v>92</v>
       </c>
       <c r="B98" s="2">
-        <v>10206</v>
+        <v>10044</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1544,71 +1541,71 @@
         <v>49</v>
       </c>
       <c r="B99" s="2">
-        <v>13396</v>
+        <v>12460</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B100" s="2">
-        <v>7895</v>
+        <v>48710</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="B101" s="2">
-        <v>7740</v>
+        <v>17478</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B102" s="2">
-        <v>50258</v>
+        <v>5866</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B103" s="2">
-        <v>12537</v>
+        <v>41684</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B104" s="2">
-        <v>7245</v>
+        <v>11664</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B105" s="2">
-        <v>27324</v>
+        <v>22092</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2">
-        <v>56516</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B107" s="2">
-        <v>9124</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1616,15 +1613,15 @@
         <v>66</v>
       </c>
       <c r="B108" s="2">
-        <v>5670</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B109" s="2">
-        <v>4273</v>
+        <v>25316</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Количество</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп "ФармаЦветик® Фиточай для кормящих мам" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -740,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -765,7 +768,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="2">
-        <v>74464</v>
+        <v>73440</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +776,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>12449</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -781,47 +784,47 @@
         <v>29</v>
       </c>
       <c r="B4" s="2">
-        <v>21253</v>
+        <v>15877</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>7185</v>
+        <v>12441</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>8384</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
-        <v>15768</v>
+        <v>8339</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>16920</v>
+        <v>18744</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
-        <v>22661</v>
+        <v>35449</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -829,79 +832,79 @@
         <v>25</v>
       </c>
       <c r="B10" s="2">
-        <v>30569</v>
+        <v>28126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>11532</v>
+        <v>14254</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2">
-        <v>56011</v>
+        <v>14350</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>5041</v>
+        <v>13118</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
-        <v>13353</v>
+        <v>90690</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2">
-        <v>14317</v>
+        <v>19020</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>9381</v>
+        <v>17073</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2">
-        <v>10653</v>
+        <v>20942</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2">
-        <v>18228</v>
+        <v>7871</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>19873</v>
+        <v>9313</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -909,71 +912,71 @@
         <v>35</v>
       </c>
       <c r="B20" s="2">
-        <v>32558</v>
+        <v>29338</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>29818</v>
+        <v>20492</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
-        <v>18135</v>
+        <v>18355</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>8007</v>
+        <v>21295</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>18032</v>
+        <v>15033</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2">
-        <v>15588</v>
+        <v>68815</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>9831</v>
+        <v>11618</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2">
-        <v>122652</v>
+        <v>33827</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2">
-        <v>21030</v>
+        <v>17068</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -981,279 +984,279 @@
         <v>11</v>
       </c>
       <c r="B29" s="2">
-        <v>78640</v>
+        <v>81300</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="B30" s="2">
-        <v>63029</v>
+        <v>27014</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2">
-        <v>26862</v>
+        <v>18373</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2">
-        <v>30084</v>
+        <v>20507</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2">
-        <v>22859</v>
+        <v>24626</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="B34" s="2">
-        <v>27296</v>
+        <v>15298</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2">
-        <v>19611</v>
+        <v>19188</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2">
-        <v>23898</v>
+        <v>7312</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2">
-        <v>26265</v>
+        <v>26020</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>28385</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2">
-        <v>8670</v>
+        <v>27850</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2">
-        <v>46819</v>
+        <v>16683</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B41" s="2">
-        <v>24340</v>
+        <v>21738</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
-        <v>8203</v>
+        <v>17292</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="B43" s="2">
-        <v>37808</v>
+        <v>11129</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B44" s="2">
-        <v>10861</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="B45" s="2">
-        <v>21779</v>
+        <v>26010</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B46" s="2">
-        <v>22038</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B47" s="2">
-        <v>3150</v>
+        <v>26147</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B48" s="2">
-        <v>31733</v>
+        <v>17075</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2">
-        <v>1980</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2">
-        <v>8788</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>3890</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>3490</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2">
-        <v>5520</v>
+        <v>14338</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2">
-        <v>3660</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="2">
-        <v>6670</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B56" s="2">
-        <v>30260</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B57" s="2">
-        <v>23130</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B58" s="2">
-        <v>16259</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2">
-        <v>34326</v>
+        <v>66852</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2">
-        <v>2602</v>
+        <v>11736</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B61" s="2">
-        <v>2718</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="B62" s="2">
-        <v>89728</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2">
-        <v>3870</v>
+        <v>10818</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1261,247 +1264,247 @@
         <v>79</v>
       </c>
       <c r="B64" s="2">
-        <v>100602</v>
+        <v>107395</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2">
-        <v>3646</v>
+        <v>26765</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2">
-        <v>14780</v>
+        <v>24174</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2">
-        <v>16730</v>
+        <v>33017</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2">
-        <v>19456</v>
+        <v>19314</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B69" s="2">
-        <v>580081</v>
+        <v>6788</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2">
-        <v>41778</v>
+        <v>47875</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2">
-        <v>3392</v>
+        <v>697284</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>37527</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B73" s="2">
-        <v>27251</v>
+        <v>24154</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2">
-        <v>3432</v>
+        <v>29484</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B75" s="2">
-        <v>14634</v>
+        <v>3834</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2">
-        <v>20619</v>
+        <v>30807</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B77" s="2">
-        <v>18205</v>
+        <v>50814</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B78" s="2">
-        <v>92142</v>
+        <v>61274</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2">
-        <v>1724</v>
+        <v>22270</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2">
-        <v>16614</v>
+        <v>60399</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B81" s="2">
-        <v>8498</v>
+        <v>34128</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B82" s="2">
-        <v>54104</v>
+        <v>63841</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>57042</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B84" s="2">
-        <v>56641</v>
+        <v>151953</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B85" s="2">
-        <v>15768</v>
+        <v>23631</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>30384</v>
+        <v>28322</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2">
-        <v>35919</v>
+        <v>30663</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>27126</v>
+        <v>42460</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B89" s="2">
-        <v>44573</v>
+        <v>1130381</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B90" s="2">
-        <v>4876</v>
+        <v>22819</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B91" s="2">
-        <v>36642</v>
+        <v>53667</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
-        <v>44243</v>
+        <v>78515</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B93" s="2">
-        <v>4266</v>
+        <v>63018</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" s="2">
-        <v>2016</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1509,79 +1512,79 @@
         <v>51</v>
       </c>
       <c r="B95" s="2">
-        <v>4389</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B96" s="2">
-        <v>1436508</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B97" s="2">
-        <v>8182</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B98" s="2">
-        <v>10044</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2">
-        <v>12460</v>
+        <v>9054</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B100" s="2">
-        <v>48710</v>
+        <v>11704</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B101" s="2">
-        <v>17478</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B102" s="2">
-        <v>5866</v>
+        <v>24386</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B103" s="2">
-        <v>41684</v>
+        <v>7452</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B104" s="2">
-        <v>11664</v>
+        <v>52040</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1589,31 +1592,31 @@
         <v>54</v>
       </c>
       <c r="B105" s="2">
-        <v>22092</v>
+        <v>14622</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B106" s="2">
-        <v>7245</v>
+        <v>19386</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B107" s="2">
-        <v>3931</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>5310</v>
+        <v>7245</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1621,7 +1624,15 @@
         <v>55</v>
       </c>
       <c r="B109" s="2">
-        <v>25316</v>
+        <v>21626</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3733</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Количество</t>
   </si>
@@ -352,13 +352,16 @@
   </si>
   <si>
     <t>Фп "ФармаЦветик® Фиточай для кормящих мам" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Линия Консумаш</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -374,6 +377,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -431,13 +440,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -743,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -768,7 +782,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="2">
-        <v>73440</v>
+        <v>66912</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -776,407 +790,407 @@
         <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>8991</v>
+        <v>20821</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
-        <v>15877</v>
+        <v>27510</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
-        <v>12441</v>
+        <v>6429</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>3361</v>
+        <v>11429</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="B7" s="2">
-        <v>8339</v>
+        <v>24517</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>18744</v>
+        <v>53566</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
-        <v>35449</v>
+        <v>38206</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>28126</v>
+        <v>13168</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
-        <v>14254</v>
+        <v>10096</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2">
-        <v>14350</v>
+        <v>22891</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>13118</v>
+        <v>62627</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
-        <v>90690</v>
+        <v>43541</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
-        <v>19020</v>
+        <v>16872</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
-        <v>17073</v>
+        <v>7181</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>20942</v>
+        <v>17598</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2">
-        <v>7871</v>
+        <v>19091</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B19" s="2">
-        <v>9313</v>
+        <v>22412</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2">
-        <v>29338</v>
+        <v>16038</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
-        <v>20492</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B22" s="2">
-        <v>18355</v>
+        <v>11657</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
-        <v>21295</v>
+        <v>11769</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>15033</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
-        <v>68815</v>
+        <v>17315</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B26" s="2">
-        <v>11618</v>
+        <v>11504</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>33827</v>
+        <v>107276</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B28" s="2">
-        <v>17068</v>
+        <v>22124</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2">
-        <v>81300</v>
+        <v>19010</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>27014</v>
+        <v>17746</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2">
-        <v>18373</v>
+        <v>28080</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>20507</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>24626</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B34" s="2">
-        <v>15298</v>
+        <v>31934</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B35" s="2">
-        <v>19188</v>
+        <v>28287</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2">
-        <v>7312</v>
+        <v>21784</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="B37" s="2">
-        <v>26020</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2">
-        <v>9279</v>
+        <v>41925</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B39" s="2">
-        <v>27850</v>
+        <v>29980</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B40" s="2">
-        <v>16683</v>
+        <v>32508</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2">
-        <v>21738</v>
+        <v>39292</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B42" s="2">
-        <v>17292</v>
+        <v>20421</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="B43" s="2">
-        <v>11129</v>
+        <v>25230</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B44" s="2">
-        <v>7237</v>
+        <v>43123</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2">
-        <v>26010</v>
+        <v>17866</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2">
-        <v>2800</v>
+        <v>13897</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B47" s="2">
-        <v>26147</v>
+        <v>20499</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B48" s="2">
-        <v>17075</v>
+        <v>15061</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2">
-        <v>1850</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="B50" s="2">
-        <v>1928</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2">
-        <v>3220</v>
+        <v>9348</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52" s="2">
-        <v>4480</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2">
-        <v>14338</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1184,15 +1198,15 @@
         <v>57</v>
       </c>
       <c r="B54" s="2">
-        <v>3770</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2">
-        <v>2810</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1200,351 +1214,351 @@
         <v>41</v>
       </c>
       <c r="B56" s="2">
-        <v>6320</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B57" s="2">
-        <v>2818</v>
+        <v>34713</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="2">
-        <v>2334</v>
+        <v>44</v>
+      </c>
+      <c r="B58" s="6">
+        <v>936</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B59" s="2">
-        <v>66852</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B60" s="2">
-        <v>11736</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B61" s="2">
-        <v>3816</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2">
-        <v>2888</v>
+        <v>154213</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2">
-        <v>10818</v>
+        <v>14688</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B64" s="2">
-        <v>107395</v>
+        <v>157389</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2">
-        <v>26765</v>
+        <v>108450</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2">
-        <v>24174</v>
+        <v>60706</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B67" s="2">
-        <v>33017</v>
+        <v>23955</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2">
-        <v>19314</v>
+        <v>72504</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2">
-        <v>6788</v>
+        <v>912111</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2">
-        <v>47875</v>
+        <v>25492</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B71" s="2">
-        <v>697284</v>
+        <v>40392</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B72" s="2">
-        <v>1562</v>
+        <v>46283</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2">
-        <v>24154</v>
+        <v>33858</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2">
-        <v>29484</v>
+        <v>69907</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B75" s="2">
-        <v>3834</v>
+        <v>30506</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="B76" s="2">
-        <v>30807</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2">
-        <v>50814</v>
+        <v>40926</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>61274</v>
+        <v>43311</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2">
-        <v>22270</v>
+        <v>19145</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2">
-        <v>60399</v>
+        <v>1204073</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2">
-        <v>34128</v>
+        <v>32445</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B82" s="2">
-        <v>63841</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B83" s="2">
-        <v>4102</v>
+        <v>73514</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B84" s="2">
-        <v>151953</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B85" s="2">
-        <v>23631</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2">
-        <v>28322</v>
+        <v>52775</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B87" s="2">
-        <v>30663</v>
+        <v>69888</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B88" s="2">
-        <v>42460</v>
+        <v>44982</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>1130381</v>
+        <v>37700</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B90" s="2">
-        <v>22819</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2">
-        <v>53667</v>
+        <v>52098</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B92" s="2">
-        <v>78515</v>
+        <v>105907</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B93" s="2">
-        <v>63018</v>
+        <v>13736</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="B94" s="2">
-        <v>5040</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B95" s="2">
-        <v>3741</v>
+        <v>32557</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B96" s="2">
-        <v>4212</v>
+        <v>86505</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B97" s="2">
-        <v>1836</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B98" s="2">
-        <v>7516</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B99" s="2">
-        <v>9054</v>
+        <v>6724</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1552,71 +1566,69 @@
         <v>49</v>
       </c>
       <c r="B100" s="2">
-        <v>11704</v>
+        <v>10678</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B101" s="2">
-        <v>3148</v>
-      </c>
+      <c r="A101" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" s="5"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B102" s="2">
-        <v>24386</v>
+        <v>51440</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B103" s="2">
-        <v>7452</v>
+        <v>30021</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B104" s="2">
-        <v>52040</v>
+        <v>7812</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B105" s="2">
-        <v>14622</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2">
-        <v>19386</v>
+        <v>6795</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B107" s="2">
-        <v>4050</v>
+        <v>21232</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B108" s="2">
-        <v>7245</v>
+        <v>24781</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1624,15 +1636,23 @@
         <v>55</v>
       </c>
       <c r="B109" s="2">
-        <v>21626</v>
+        <v>18944</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="2">
+        <v>8116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B110" s="2">
-        <v>3733</v>
+      <c r="B111" s="2">
+        <v>3247</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Количество</t>
   </si>
@@ -352,16 +352,13 @@
   </si>
   <si>
     <t>Фп "ФармаЦветик® Фиточай для кормящих мам" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Линия Консумаш</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -377,12 +374,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -440,15 +431,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -757,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -782,7 +771,7 @@
         <v>108</v>
       </c>
       <c r="B2" s="2">
-        <v>66912</v>
+        <v>65888</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -790,247 +779,247 @@
         <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>20821</v>
+        <v>10139</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2">
-        <v>27510</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="4">
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>6429</v>
+        <v>49638</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>11429</v>
+        <v>45468</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>24517</v>
+        <v>7681</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
-        <v>53566</v>
+        <v>72766</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B9" s="2">
-        <v>38206</v>
+        <v>12896</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>13168</v>
+        <v>16436</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>10096</v>
+        <v>15128</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2">
-        <v>22891</v>
+        <v>31497</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="B13" s="2">
-        <v>62627</v>
+        <v>20635</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2">
-        <v>43541</v>
+        <v>29616</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
-        <v>16872</v>
+        <v>6587</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>7181</v>
+        <v>97580</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>17598</v>
+        <v>102002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>19091</v>
+        <v>27615</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>22412</v>
+        <v>17245</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>16038</v>
+        <v>13198</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2">
-        <v>14500</v>
+        <v>25726</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>11657</v>
+        <v>13219</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2">
-        <v>11769</v>
+        <v>34467</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2">
-        <v>1498</v>
+        <v>19225</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2">
-        <v>17315</v>
+        <v>15668</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2">
-        <v>11504</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2">
-        <v>107276</v>
+        <v>19391</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B28" s="2">
-        <v>22124</v>
+        <v>47331</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
-        <v>19010</v>
+        <v>22948</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="B30" s="2">
-        <v>17746</v>
+        <v>25211</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>28080</v>
+        <v>41949</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>6271</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>6906</v>
+        <v>9085</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1038,119 +1027,119 @@
         <v>105</v>
       </c>
       <c r="B34" s="2">
-        <v>31934</v>
+        <v>34826</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B35" s="2">
-        <v>28287</v>
+        <v>29927</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B36" s="2">
-        <v>21784</v>
+        <v>23604</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B37" s="2">
-        <v>6383</v>
+        <v>30782</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>41925</v>
+        <v>23449</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>29980</v>
+        <v>11434</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
-        <v>32508</v>
+        <v>27653</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2">
-        <v>39292</v>
+        <v>31979</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>20421</v>
+        <v>19516</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B43" s="2">
-        <v>25230</v>
+        <v>32199</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2">
-        <v>43123</v>
+        <v>45834</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2">
-        <v>17866</v>
+        <v>16810</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B46" s="2">
-        <v>13897</v>
+        <v>8075</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B47" s="2">
-        <v>20499</v>
+        <v>24668</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B48" s="2">
-        <v>15061</v>
+        <v>25631</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,23 +1147,23 @@
         <v>110</v>
       </c>
       <c r="B49" s="2">
-        <v>1890</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2">
-        <v>1450</v>
+        <v>12506</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="B51" s="2">
-        <v>9348</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1182,23 +1171,23 @@
         <v>59</v>
       </c>
       <c r="B52" s="2">
-        <v>3890</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>3670</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>3270</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1206,7 +1195,7 @@
         <v>58</v>
       </c>
       <c r="B55" s="2">
-        <v>5350</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1214,351 +1203,351 @@
         <v>41</v>
       </c>
       <c r="B56" s="2">
-        <v>5730</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2">
-        <v>34713</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="6">
-        <v>936</v>
+        <v>85</v>
+      </c>
+      <c r="B58" s="2">
+        <v>107520</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2">
-        <v>2481</v>
+        <v>145513</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2">
-        <v>3222</v>
+        <v>28092</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2">
-        <v>4248</v>
+        <v>41991</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2">
-        <v>154213</v>
+        <v>56589</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B63" s="2">
-        <v>14688</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>157389</v>
+        <v>28136</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B65" s="2">
-        <v>108450</v>
+        <v>80238</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B66" s="2">
-        <v>60706</v>
+        <v>39987</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2">
-        <v>23955</v>
+        <v>53246</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B68" s="2">
-        <v>72504</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2">
-        <v>912111</v>
+        <v>14958</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B70" s="2">
-        <v>25492</v>
+        <v>27647</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2">
-        <v>40392</v>
+        <v>26158</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B72" s="2">
-        <v>46283</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B73" s="2">
-        <v>33858</v>
+        <v>60313</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2">
-        <v>69907</v>
+        <v>18126</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B75" s="2">
-        <v>30506</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B76" s="2">
-        <v>5796</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B77" s="2">
-        <v>40926</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>43311</v>
+        <v>975634</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2">
-        <v>19145</v>
+        <v>42047</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B80" s="2">
-        <v>1204073</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2">
-        <v>32445</v>
+        <v>49366</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2">
-        <v>4752</v>
+        <v>84177</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2">
-        <v>73514</v>
+        <v>63369</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B84" s="2">
-        <v>3852</v>
+        <v>60298</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2">
-        <v>4896</v>
+        <v>38568</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B86" s="2">
-        <v>52775</v>
+        <v>30159</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B87" s="2">
-        <v>69888</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B88" s="2">
-        <v>44982</v>
+        <v>58672</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2">
-        <v>37700</v>
+        <v>38709</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>6370</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B91" s="2">
-        <v>52098</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B92" s="2">
-        <v>105907</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B93" s="2">
-        <v>13736</v>
+        <v>54660</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B94" s="2">
-        <v>7752</v>
+        <v>32764</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B95" s="2">
-        <v>32557</v>
+        <v>41885</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B96" s="2">
-        <v>86505</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B97" s="2">
-        <v>4460</v>
+        <v>17496</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B98" s="2">
-        <v>8010</v>
+        <v>834318</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B99" s="2">
-        <v>6724</v>
+        <v>7182</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1566,69 +1555,71 @@
         <v>49</v>
       </c>
       <c r="B100" s="2">
-        <v>10678</v>
+        <v>8662</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101" s="5"/>
+      <c r="A101" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="2">
+        <v>6183</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B102" s="2">
-        <v>51440</v>
+        <v>63165</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B103" s="2">
-        <v>30021</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B104" s="2">
-        <v>7812</v>
+        <v>7858</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B105" s="2">
-        <v>2772</v>
+        <v>25495</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B106" s="2">
-        <v>6795</v>
+        <v>22123</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B107" s="2">
-        <v>21232</v>
+        <v>61574</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B108" s="2">
-        <v>24781</v>
+        <v>21864</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1636,23 +1627,15 @@
         <v>55</v>
       </c>
       <c r="B109" s="2">
-        <v>18944</v>
+        <v>21669</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B110" s="2">
-        <v>8116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B111" s="2">
-        <v>3247</v>
+        <v>5291</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -376,7 +376,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -441,6 +447,7 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -748,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -771,95 +778,95 @@
         <v>108</v>
       </c>
       <c r="B2" s="2">
-        <v>65888</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10139</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4">
-        <v>252</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>49638</v>
+        <v>18631</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>45468</v>
+        <v>15022</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>7681</v>
+        <v>47614</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
-        <v>72766</v>
+        <v>14185</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2">
-        <v>12896</v>
+        <v>16276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
-        <v>16436</v>
+        <v>73418</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>15128</v>
+        <v>13274</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2">
-        <v>31497</v>
+        <v>18390</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2">
-        <v>20635</v>
+        <v>14039</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -867,335 +874,335 @@
         <v>101</v>
       </c>
       <c r="B14" s="2">
-        <v>29616</v>
+        <v>24612</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2">
-        <v>6587</v>
+        <v>6478</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>97580</v>
+        <v>13398</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>102002</v>
+        <v>15289</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B18" s="2">
-        <v>27615</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>17245</v>
+        <v>92917</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2">
-        <v>13198</v>
+        <v>8633</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
-        <v>25726</v>
+        <v>37027</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>13219</v>
+        <v>20440</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2">
-        <v>34467</v>
+        <v>17044</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2">
-        <v>19225</v>
+        <v>91784</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>15668</v>
+        <v>61033</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B26" s="2">
-        <v>15554</v>
+        <v>19424</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2">
-        <v>19391</v>
+        <v>16184</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2">
-        <v>47331</v>
+        <v>12194</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2">
-        <v>22948</v>
+        <v>16886</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
-        <v>25211</v>
+        <v>18013</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2">
-        <v>41949</v>
+        <v>22609</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2">
-        <v>5576</v>
+        <v>21206</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="B33" s="2">
-        <v>9085</v>
+        <v>30056</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2">
-        <v>34826</v>
+        <v>38294</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2">
-        <v>29927</v>
+        <v>20145</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="B36" s="2">
-        <v>23604</v>
+        <v>15481</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>22</v>
+      <c r="A37" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B37" s="2">
-        <v>30782</v>
+        <v>16906</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B38" s="2">
-        <v>23449</v>
+        <v>16492</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" s="2">
-        <v>11434</v>
+        <v>39129</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>27653</v>
+        <v>15652</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B41" s="2">
-        <v>31979</v>
+        <v>26729</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B42" s="2">
-        <v>19516</v>
+        <v>14402</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2">
-        <v>32199</v>
+        <v>25077</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="B44" s="2">
-        <v>45834</v>
+        <v>20468</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B45" s="2">
-        <v>16810</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B46" s="2">
-        <v>8075</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B47" s="2">
-        <v>24668</v>
+        <v>21809</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B48" s="2">
-        <v>25631</v>
+        <v>39779</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="2">
-        <v>2420</v>
+        <v>57</v>
+      </c>
+      <c r="B49" s="4">
+        <v>780</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="2">
-        <v>12506</v>
+        <v>56</v>
+      </c>
+      <c r="B50" s="4">
+        <v>980</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2">
-        <v>2340</v>
+        <v>13204</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2">
-        <v>4100</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>2050</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>2460</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2">
-        <v>3820</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,439 +1210,439 @@
         <v>41</v>
       </c>
       <c r="B56" s="2">
-        <v>5000</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B57" s="2">
-        <v>2442</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2">
-        <v>107520</v>
+        <v>36100</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2">
-        <v>145513</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2">
-        <v>28092</v>
+        <v>110796</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B61" s="2">
-        <v>41991</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2">
-        <v>56589</v>
+        <v>15587</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B63" s="2">
-        <v>4464</v>
+        <v>28312</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2">
-        <v>28136</v>
+        <v>17367</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B65" s="2">
-        <v>80238</v>
+        <v>102237</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B66" s="2">
-        <v>39987</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2">
-        <v>53246</v>
+        <v>62514</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2">
-        <v>5436</v>
+        <v>28900</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2">
-        <v>14958</v>
+        <v>41846</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>27647</v>
+        <v>46399</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B71" s="2">
-        <v>26158</v>
+        <v>27521</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B72" s="2">
-        <v>4194</v>
+        <v>26544</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B73" s="2">
-        <v>60313</v>
+        <v>24084</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74" s="2">
-        <v>18126</v>
+        <v>14040</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2">
-        <v>5398</v>
+        <v>23760</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2">
-        <v>4446</v>
+        <v>40977</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2">
-        <v>3564</v>
+        <v>23643</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2">
-        <v>975634</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>42047</v>
+        <v>752436</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2">
-        <v>4554</v>
+        <v>72814</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B81" s="2">
-        <v>49366</v>
+        <v>52405</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="B82" s="2">
-        <v>84177</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B83" s="2">
-        <v>63369</v>
+        <v>47683</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>60298</v>
+        <v>19539</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B85" s="2">
-        <v>38568</v>
+        <v>8742</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B86" s="2">
-        <v>30159</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B87" s="2">
-        <v>2070</v>
+        <v>30779</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B88" s="2">
-        <v>58672</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B89" s="2">
-        <v>38709</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B90" s="2">
-        <v>31590</v>
+        <v>25425</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>3308</v>
+        <v>46404</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B92" s="2">
-        <v>5163</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B93" s="2">
-        <v>54660</v>
+        <v>26334</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B94" s="2">
-        <v>32764</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B95" s="2">
-        <v>41885</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="B96" s="2">
-        <v>4726</v>
+        <v>27036</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B97" s="2">
-        <v>17496</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="B98" s="2">
-        <v>834318</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B99" s="2">
-        <v>7182</v>
+        <v>49098</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B100" s="2">
-        <v>8662</v>
+        <v>803772</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B101" s="2">
-        <v>6183</v>
+        <v>64188</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="B102" s="2">
-        <v>63165</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="B103" s="2">
-        <v>3290</v>
+        <v>18577</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B104" s="2">
-        <v>7858</v>
+        <v>13656</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B105" s="2">
-        <v>25495</v>
+        <v>42185</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B106" s="2">
-        <v>22123</v>
+        <v>5448</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2">
-        <v>61574</v>
+        <v>21097</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B108" s="2">
-        <v>21864</v>
+        <v>25250</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B109" s="2">
-        <v>21669</v>
+        <v>13082</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B110" s="2">
-        <v>5291</v>
+        <v>18717</v>
       </c>
     </row>
   </sheetData>

--- a/finish_goods_stocks.xlsx
+++ b/finish_goods_stocks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Количество</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитонефрол (Урологический сбор) 50г</t>
   </si>
   <si>
     <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
@@ -376,7 +373,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,12 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,17 +428,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -753,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -775,354 +762,354 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2">
-        <v>64000</v>
+        <v>63520</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="B3" s="2">
+        <v>11167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4">
-        <v>693</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>59010</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
-        <v>18631</v>
+        <v>14028</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2">
-        <v>15022</v>
+        <v>12826</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2">
-        <v>47614</v>
+        <v>19388</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2">
-        <v>14185</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2">
-        <v>16276</v>
+        <v>12265</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
-        <v>73418</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>13274</v>
+        <v>30895</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>18390</v>
+        <v>63360</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2">
-        <v>14039</v>
+        <v>84925</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
-        <v>24612</v>
+        <v>17948</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
-        <v>6478</v>
+        <v>14228</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>13398</v>
+        <v>15895</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
-        <v>15289</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>4169</v>
+        <v>17710</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2">
-        <v>92917</v>
+        <v>31055</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
-        <v>8633</v>
+        <v>28629</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>37027</v>
+        <v>11634</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>20440</v>
+        <v>12572</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2">
-        <v>17044</v>
+        <v>16939</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2">
-        <v>91784</v>
+        <v>85497</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2">
-        <v>61033</v>
+        <v>12927</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>19424</v>
+        <v>53501</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2">
-        <v>16184</v>
+        <v>30968</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="B28" s="2">
-        <v>12194</v>
+        <v>19305</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B29" s="2">
-        <v>16886</v>
+        <v>36596</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B30" s="2">
-        <v>18013</v>
+        <v>26289</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B31" s="2">
-        <v>22609</v>
+        <v>25515</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2">
-        <v>21206</v>
+        <v>20750</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B33" s="2">
-        <v>30056</v>
+        <v>14154</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2">
-        <v>38294</v>
+        <v>8657</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2">
-        <v>20145</v>
+        <v>22739</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>15481</v>
+        <v>15190</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>31</v>
+      <c r="A37" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B37" s="2">
-        <v>16906</v>
+        <v>8869</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B38" s="2">
-        <v>16492</v>
+        <v>21171</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2">
-        <v>39129</v>
+        <v>27266</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2">
-        <v>15652</v>
+        <v>18004</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2">
-        <v>26729</v>
+        <v>18799</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2">
-        <v>14402</v>
+        <v>19353</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2">
-        <v>25077</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2">
-        <v>20468</v>
+        <v>32121</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2">
-        <v>7906</v>
+        <v>17622</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1130,63 +1117,63 @@
         <v>32</v>
       </c>
       <c r="B46" s="2">
-        <v>4792</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B47" s="2">
-        <v>21809</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="B48" s="2">
-        <v>39779</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49" s="4">
-        <v>780</v>
+        <v>39</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3440</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="4">
-        <v>980</v>
+        <v>57</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2130</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>13204</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2">
-        <v>2320</v>
+        <v>19994</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2">
-        <v>4860</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1194,455 +1181,447 @@
         <v>40</v>
       </c>
       <c r="B54" s="2">
-        <v>3760</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2">
-        <v>2310</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B56" s="2">
-        <v>4150</v>
+        <v>26609</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B57" s="2">
-        <v>1944</v>
+        <v>16937</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B58" s="2">
-        <v>36100</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2">
-        <v>3436</v>
+        <v>14850</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2">
-        <v>110796</v>
+        <v>27153</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2">
-        <v>1404</v>
+        <v>97916</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2">
-        <v>15587</v>
+        <v>9864</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B63" s="2">
-        <v>28312</v>
+        <v>51588</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2">
-        <v>17367</v>
+        <v>50350</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2">
-        <v>102237</v>
+        <v>12591</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B66" s="2">
-        <v>3294</v>
+        <v>21090</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2">
-        <v>62514</v>
+        <v>17601</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B68" s="2">
-        <v>28900</v>
+        <v>17657</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B69" s="2">
-        <v>41846</v>
+        <v>565813</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
-        <v>46399</v>
+        <v>20538</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B71" s="2">
-        <v>27521</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2">
-        <v>26544</v>
+        <v>156658</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B73" s="2">
-        <v>24084</v>
+        <v>56814</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B74" s="2">
-        <v>14040</v>
+        <v>41385</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2">
-        <v>23760</v>
+        <v>19486</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="B76" s="2">
-        <v>40977</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>23643</v>
+        <v>35416</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2">
-        <v>3132</v>
+        <v>42768</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B79" s="2">
-        <v>752436</v>
+        <v>41923</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="B80" s="2">
-        <v>72814</v>
+        <v>8532</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2">
-        <v>52405</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2">
-        <v>3708</v>
+        <v>58507</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B83" s="2">
-        <v>47683</v>
+        <v>7194</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B84" s="2">
-        <v>19539</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B85" s="2">
-        <v>8742</v>
+        <v>24983</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B86" s="2">
-        <v>11250</v>
+        <v>7535</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B87" s="2">
-        <v>30779</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>3376</v>
+        <v>19818</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2">
-        <v>4101</v>
+        <v>39150</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B90" s="2">
-        <v>25425</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B91" s="2">
-        <v>46404</v>
+        <v>21897</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" s="2">
-        <v>4460</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B93" s="2">
-        <v>26334</v>
+        <v>22825</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B94" s="2">
-        <v>4914</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B95" s="2">
-        <v>6052</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B96" s="2">
-        <v>27036</v>
+        <v>3903</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B97" s="2">
-        <v>3222</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B98" s="2">
-        <v>3276</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B99" s="2">
-        <v>49098</v>
+        <v>754992</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B100" s="2">
-        <v>803772</v>
+        <v>30269</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101" s="2">
-        <v>64188</v>
+        <v>82094</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2">
-        <v>2267</v>
+        <v>25235</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B103" s="2">
-        <v>18577</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B104" s="2">
-        <v>13656</v>
+        <v>18948</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B105" s="2">
-        <v>42185</v>
+        <v>27075</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B106" s="2">
-        <v>5448</v>
+        <v>22424</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="B107" s="2">
-        <v>21097</v>
+        <v>7516</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B108" s="2">
-        <v>25250</v>
+        <v>5345</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B109" s="2">
-        <v>13082</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B110" s="2">
-        <v>18717</v>
+        <v>17223</v>
       </c>
     </row>
   </sheetData>
